--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_15_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_15_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1502873.888831888</v>
+        <v>-1503643.902430956</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1359040.492873525</v>
+        <v>1359040.492873523</v>
       </c>
     </row>
     <row r="8">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="T9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>5.309829763041575</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.3538804794597</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>79.15526722783605</v>
       </c>
       <c r="D11" t="n">
         <v>223.3030804366621</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.4960845576906</v>
       </c>
       <c r="G11" t="n">
-        <v>283.4226819530071</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>202.9732493819571</v>
       </c>
       <c r="I11" t="n">
-        <v>38.01388747441155</v>
+        <v>59.81603987441159</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.24420776110922</v>
+        <v>66.24420776110925</v>
       </c>
       <c r="T11" t="n">
-        <v>89.5267252399467</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.925684173567</v>
+        <v>119.9256841735671</v>
       </c>
       <c r="V11" t="n">
         <v>196.372297286114</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.8579774720327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>41.32853780429485</v>
+        <v>41.32853780429488</v>
       </c>
       <c r="D12" t="n">
-        <v>16.06510438061787</v>
+        <v>16.0651043806179</v>
       </c>
       <c r="E12" t="n">
-        <v>26.26511927138006</v>
+        <v>26.26511927138009</v>
       </c>
       <c r="F12" t="n">
-        <v>13.68925120936299</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>5.695981897545</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I12" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.54476967999808</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>35.33313871031908</v>
+        <v>35.3331387103191</v>
       </c>
       <c r="T12" t="n">
-        <v>146.8854929661573</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9237785229719</v>
+        <v>96.42072485214209</v>
       </c>
       <c r="V12" t="n">
         <v>101.4206259654044</v>
@@ -1512,7 +1512,7 @@
         <v>120.3150219768987</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>74.39302401945662</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.45201899791641</v>
+        <v>48.45201899791644</v>
       </c>
       <c r="C13" t="n">
-        <v>35.86685991460695</v>
+        <v>35.86685991460698</v>
       </c>
       <c r="D13" t="n">
-        <v>17.23551183419147</v>
+        <v>17.2355118341915</v>
       </c>
       <c r="E13" t="n">
-        <v>15.05400146254829</v>
+        <v>15.05400146254831</v>
       </c>
       <c r="F13" t="n">
-        <v>14.04108683891036</v>
+        <v>14.04108683891039</v>
       </c>
       <c r="G13" t="n">
-        <v>36.38669305278287</v>
+        <v>36.3866930527829</v>
       </c>
       <c r="H13" t="n">
-        <v>28.85275705997694</v>
+        <v>28.85275705997697</v>
       </c>
       <c r="I13" t="n">
-        <v>17.32444553928514</v>
+        <v>17.32444553928516</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.82695699582458</v>
+        <v>35.82695699582461</v>
       </c>
       <c r="S13" t="n">
-        <v>88.72726177829101</v>
+        <v>88.72726177829104</v>
       </c>
       <c r="T13" t="n">
-        <v>95.60714817900741</v>
+        <v>95.60714817900744</v>
       </c>
       <c r="U13" t="n">
         <v>154.9268322567434</v>
@@ -1591,10 +1591,10 @@
         <v>155.1430371525701</v>
       </c>
       <c r="X13" t="n">
-        <v>94.32969420501627</v>
+        <v>94.3296942050163</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.2046921680739</v>
+        <v>87.20469216807393</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.3538804794597</v>
+        <v>96.44814730018318</v>
       </c>
       <c r="C14" t="n">
         <v>233.8929305869867</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>213.064742834806</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>283.4226819530071</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.9732493819571</v>
       </c>
       <c r="I14" t="n">
-        <v>59.81603987441157</v>
+        <v>59.81603987441159</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.9256841735671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.3511394944481</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>254.8579774720327</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>35.15322246584648</v>
       </c>
       <c r="C15" t="n">
-        <v>41.32853780429485</v>
+        <v>41.32853780429488</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>26.26511927138006</v>
+        <v>26.26511927138009</v>
       </c>
       <c r="F15" t="n">
-        <v>13.68925120936299</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>5.695981897545</v>
+        <v>5.695981897545028</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S15" t="n">
-        <v>35.33313871031908</v>
+        <v>35.3331387103191</v>
       </c>
       <c r="T15" t="n">
-        <v>67.70625619048701</v>
+        <v>67.70625619048704</v>
       </c>
       <c r="U15" t="n">
         <v>225.9237785229719</v>
       </c>
       <c r="V15" t="n">
-        <v>101.4206259654044</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>120.3150219768987</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>102.3764037743135</v>
       </c>
       <c r="Y15" t="n">
-        <v>185.8308840281389</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.45201899791641</v>
+        <v>48.45201899791644</v>
       </c>
       <c r="C16" t="n">
-        <v>35.86685991460695</v>
+        <v>35.86685991460698</v>
       </c>
       <c r="D16" t="n">
-        <v>17.23551183419147</v>
+        <v>17.2355118341915</v>
       </c>
       <c r="E16" t="n">
-        <v>15.05400146254829</v>
+        <v>15.05400146254831</v>
       </c>
       <c r="F16" t="n">
-        <v>14.04108683891036</v>
+        <v>14.04108683891039</v>
       </c>
       <c r="G16" t="n">
-        <v>36.38669305278287</v>
+        <v>36.3866930527829</v>
       </c>
       <c r="H16" t="n">
-        <v>28.85275705997694</v>
+        <v>28.85275705997697</v>
       </c>
       <c r="I16" t="n">
-        <v>17.32444553928514</v>
+        <v>17.32444553928516</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.82695699582458</v>
+        <v>35.82695699582461</v>
       </c>
       <c r="S16" t="n">
-        <v>88.72726177829101</v>
+        <v>88.72726177829104</v>
       </c>
       <c r="T16" t="n">
-        <v>95.60714817900741</v>
+        <v>95.60714817900744</v>
       </c>
       <c r="U16" t="n">
         <v>154.9268322567434</v>
@@ -1828,10 +1828,10 @@
         <v>155.1430371525701</v>
       </c>
       <c r="X16" t="n">
-        <v>94.32969420501627</v>
+        <v>94.3296942050163</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.2046921680739</v>
+        <v>87.20469216807393</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.2104945573971</v>
+        <v>145.2104945573982</v>
       </c>
       <c r="C17" t="n">
-        <v>127.7495446649241</v>
+        <v>127.749544664924</v>
       </c>
       <c r="D17" t="n">
-        <v>117.1596945145995</v>
+        <v>117.1596945145994</v>
       </c>
       <c r="E17" t="n">
         <v>144.4070229661783</v>
       </c>
       <c r="F17" t="n">
-        <v>169.352698635628</v>
+        <v>169.3526986356279</v>
       </c>
       <c r="G17" t="n">
-        <v>177.2792960309445</v>
+        <v>177.2792960309444</v>
       </c>
       <c r="H17" t="n">
-        <v>96.82986345989451</v>
+        <v>96.82986345989445</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.78229825150366</v>
+        <v>13.78229825150441</v>
       </c>
       <c r="V17" t="n">
-        <v>90.22891136405144</v>
+        <v>90.22891136405138</v>
       </c>
       <c r="W17" t="n">
         <v>111.7176216113295</v>
       </c>
       <c r="X17" t="n">
-        <v>132.2077535723856</v>
+        <v>132.2077535723855</v>
       </c>
       <c r="Y17" t="n">
         <v>148.7145915499701</v>
@@ -1929,10 +1929,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.0759430815659</v>
@@ -1941,7 +1941,7 @@
         <v>109.6512419216643</v>
       </c>
       <c r="I18" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.58692449720403</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T18" t="n">
         <v>199.0862173745079</v>
@@ -1980,16 +1980,16 @@
         <v>225.9237785229719</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>185.3453433069801</v>
       </c>
       <c r="W18" t="n">
-        <v>14.17163605483614</v>
+        <v>14.17163605483609</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>180.3036712061528</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.78344633468079</v>
+        <v>48.78344633468073</v>
       </c>
       <c r="V19" t="n">
-        <v>14.61429621774454</v>
+        <v>14.61429621774448</v>
       </c>
       <c r="W19" t="n">
-        <v>48.99965123050754</v>
+        <v>48.99965123050748</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>180.3036712061531</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>145.2104945573971</v>
       </c>
       <c r="C20" t="n">
-        <v>127.7495446649241</v>
+        <v>127.749544664924</v>
       </c>
       <c r="D20" t="n">
-        <v>117.1596945145995</v>
+        <v>117.1596945145994</v>
       </c>
       <c r="E20" t="n">
         <v>144.4070229661783</v>
       </c>
       <c r="F20" t="n">
-        <v>169.352698635628</v>
+        <v>169.3526986356279</v>
       </c>
       <c r="G20" t="n">
-        <v>177.2792960309445</v>
+        <v>177.2792960309444</v>
       </c>
       <c r="H20" t="n">
-        <v>96.82986345989454</v>
+        <v>96.82986345989445</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.78229825150449</v>
+        <v>13.78229825150441</v>
       </c>
       <c r="V20" t="n">
-        <v>90.22891136405147</v>
+        <v>90.22891136405138</v>
       </c>
       <c r="W20" t="n">
-        <v>111.7176216113296</v>
+        <v>111.7176216113295</v>
       </c>
       <c r="X20" t="n">
-        <v>132.2077535723856</v>
+        <v>132.2077535723855</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.7145915499702</v>
+        <v>148.7145915499701</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>86.93129180188657</v>
       </c>
       <c r="I21" t="n">
         <v>80.18410416320771</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T21" t="n">
-        <v>94.46168749111267</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237785229719</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.78344633468082</v>
+        <v>48.78344633468073</v>
       </c>
       <c r="V22" t="n">
-        <v>14.61429621774457</v>
+        <v>48.48400477732836</v>
       </c>
       <c r="W22" t="n">
-        <v>229.3033224366603</v>
+        <v>48.99965123050748</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>145.2104945573971</v>
       </c>
       <c r="C23" t="n">
-        <v>127.7495446649241</v>
+        <v>127.749544664924</v>
       </c>
       <c r="D23" t="n">
-        <v>117.1596945145995</v>
+        <v>117.1596945145994</v>
       </c>
       <c r="E23" t="n">
         <v>144.4070229661783</v>
       </c>
       <c r="F23" t="n">
-        <v>169.352698635628</v>
+        <v>169.3526986356279</v>
       </c>
       <c r="G23" t="n">
-        <v>177.2792960309445</v>
+        <v>177.2792960309444</v>
       </c>
       <c r="H23" t="n">
-        <v>96.82986345989451</v>
+        <v>96.82986345989443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.78229825150449</v>
+        <v>13.78229825150441</v>
       </c>
       <c r="V23" t="n">
-        <v>90.22891136405147</v>
+        <v>90.22891136405138</v>
       </c>
       <c r="W23" t="n">
-        <v>111.7176216113296</v>
+        <v>111.7176216113295</v>
       </c>
       <c r="X23" t="n">
-        <v>132.2077535723856</v>
+        <v>132.2077535723855</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.7145915499702</v>
+        <v>148.7145915499701</v>
       </c>
     </row>
     <row r="24">
@@ -2406,16 +2406,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I24" t="n">
-        <v>22.08808598549906</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>14.17163605483609</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>17.74393204301645</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>33.8697085595839</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>77.49939401566409</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,25 +2518,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.37787329201959</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>35.42640389846905</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.78344633468082</v>
+        <v>48.78344633468073</v>
       </c>
       <c r="V25" t="n">
-        <v>14.61429621774457</v>
+        <v>14.61429621774448</v>
       </c>
       <c r="W25" t="n">
-        <v>48.99965123050757</v>
+        <v>48.99965123050748</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.6091683564221</v>
+        <v>232.609168356422</v>
       </c>
       <c r="C26" t="n">
         <v>215.148218463949</v>
@@ -2561,7 +2561,7 @@
         <v>204.5583683136244</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8056967652033</v>
+        <v>231.8056967652032</v>
       </c>
       <c r="F26" t="n">
         <v>256.7513724346529</v>
@@ -2570,10 +2570,10 @@
         <v>264.6779698299695</v>
       </c>
       <c r="H26" t="n">
-        <v>184.2285372589195</v>
+        <v>184.2285372589194</v>
       </c>
       <c r="I26" t="n">
-        <v>41.07132775137393</v>
+        <v>41.0713277513739</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.49949563807158</v>
+        <v>47.49949563807155</v>
       </c>
       <c r="T26" t="n">
-        <v>70.78201311690907</v>
+        <v>70.78201311690904</v>
       </c>
       <c r="U26" t="n">
         <v>101.1809720505294</v>
@@ -2621,7 +2621,7 @@
         <v>219.6064273714105</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.1132653489951</v>
+        <v>236.113265348995</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.40851034280882</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>7.520407148342429</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6512419216643</v>
+        <v>9.819973001186513</v>
       </c>
       <c r="I27" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S27" t="n">
         <v>166.71309989434</v>
       </c>
       <c r="T27" t="n">
-        <v>87.1910305740729</v>
+        <v>48.96154406744936</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9237785229719</v>
+        <v>75.79910521591333</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>101.5703098538611</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.70730687487878</v>
+        <v>29.70730687487875</v>
       </c>
       <c r="C28" t="n">
-        <v>17.12214779156932</v>
+        <v>17.12214779156929</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.64198092974524</v>
+        <v>17.64198092974521</v>
       </c>
       <c r="H28" t="n">
-        <v>10.10804493693931</v>
+        <v>10.10804493693928</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.08224487278695</v>
+        <v>17.08224487278692</v>
       </c>
       <c r="S28" t="n">
-        <v>69.98254965525338</v>
+        <v>69.98254965525335</v>
       </c>
       <c r="T28" t="n">
-        <v>76.86243605596978</v>
+        <v>76.86243605596975</v>
       </c>
       <c r="U28" t="n">
         <v>136.1821201337057</v>
@@ -2776,10 +2776,10 @@
         <v>136.3983250295325</v>
       </c>
       <c r="X28" t="n">
-        <v>75.58498208197864</v>
+        <v>75.58498208197861</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.45998004503627</v>
+        <v>68.45998004503625</v>
       </c>
     </row>
     <row r="29">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>64.32606155813461</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2880,16 +2880,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H30" t="n">
-        <v>2.811516034903974</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I30" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S30" t="n">
-        <v>16.58842658728142</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T30" t="n">
-        <v>48.96154406744936</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U30" t="n">
-        <v>75.79910521591333</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>101.5703098538611</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>55.64831189641893</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>55.55802247024582</v>
       </c>
     </row>
     <row r="31">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>230.8301978021265</v>
+        <v>230.8301978021264</v>
       </c>
       <c r="C32" t="n">
         <v>213.3692479096534</v>
@@ -3035,7 +3035,7 @@
         <v>202.7793977593288</v>
       </c>
       <c r="E32" t="n">
-        <v>230.0267262109077</v>
+        <v>230.0267262109076</v>
       </c>
       <c r="F32" t="n">
         <v>254.9724018803573</v>
@@ -3044,10 +3044,10 @@
         <v>262.8989992756739</v>
       </c>
       <c r="H32" t="n">
-        <v>182.4495667046239</v>
+        <v>182.4495667046238</v>
       </c>
       <c r="I32" t="n">
-        <v>39.29235719707833</v>
+        <v>39.2923571970783</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>45.72052508377598</v>
+        <v>45.72052508377595</v>
       </c>
       <c r="T32" t="n">
-        <v>69.00304256261347</v>
+        <v>69.00304256261344</v>
       </c>
       <c r="U32" t="n">
-        <v>99.40200149623382</v>
+        <v>99.40200149623379</v>
       </c>
       <c r="V32" t="n">
         <v>175.8486146087808</v>
@@ -3095,7 +3095,7 @@
         <v>217.8274568171149</v>
       </c>
       <c r="Y32" t="n">
-        <v>234.3342947946995</v>
+        <v>234.3342947946994</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S33" t="n">
-        <v>103.1419878939845</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T33" t="n">
-        <v>47.18257351315379</v>
+        <v>47.18257351315376</v>
       </c>
       <c r="U33" t="n">
-        <v>74.02013466161776</v>
+        <v>74.02013466161773</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>99.79133929956546</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>53.86934134212333</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>172.5387557347869</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.92833632058318</v>
+        <v>27.92833632058316</v>
       </c>
       <c r="C34" t="n">
-        <v>15.34317723727372</v>
+        <v>15.34317723727369</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>15.86301037544964</v>
+        <v>15.86301037544962</v>
       </c>
       <c r="H34" t="n">
-        <v>8.329074382643713</v>
+        <v>8.329074382643684</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.30327431849135</v>
+        <v>15.30327431849132</v>
       </c>
       <c r="S34" t="n">
-        <v>68.20357910095778</v>
+        <v>68.20357910095775</v>
       </c>
       <c r="T34" t="n">
-        <v>75.08346550167418</v>
+        <v>75.08346550167416</v>
       </c>
       <c r="U34" t="n">
         <v>134.4031495794101</v>
@@ -3250,10 +3250,10 @@
         <v>134.6193544752369</v>
       </c>
       <c r="X34" t="n">
-        <v>73.80601152768304</v>
+        <v>73.80601152768301</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.68100949074068</v>
+        <v>66.68100949074065</v>
       </c>
     </row>
     <row r="35">
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I36" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,19 +3393,19 @@
         <v>83.54476967999808</v>
       </c>
       <c r="S36" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.0862173745079</v>
       </c>
       <c r="U36" t="n">
-        <v>82.02709331114967</v>
+        <v>5.01709209900429</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>219.621832481369</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>30.78829673695202</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>119.5702972556749</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.49939401566409</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.080422939060717</v>
+        <v>6.080422939060716</v>
       </c>
       <c r="U37" t="n">
         <v>65.40010701679667</v>
@@ -3484,7 +3484,7 @@
         <v>31.23095689986042</v>
       </c>
       <c r="W37" t="n">
-        <v>107.6872151526341</v>
+        <v>65.61631191262342</v>
       </c>
       <c r="X37" t="n">
         <v>4.802968965069567</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>49.14852040364698</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0759430815659</v>
@@ -3600,7 +3600,7 @@
         <v>109.6512419216643</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S39" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U39" t="n">
-        <v>53.04578713224964</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>11.89390072545768</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3712,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.080422939060717</v>
+        <v>6.080422939060716</v>
       </c>
       <c r="U40" t="n">
         <v>65.40010701679667</v>
       </c>
       <c r="V40" t="n">
-        <v>83.42338086351569</v>
+        <v>83.42338086351577</v>
       </c>
       <c r="W40" t="n">
         <v>65.61631191262342</v>
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>11.08363231579084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>83.54476967999808</v>
       </c>
       <c r="S42" t="n">
-        <v>18.5042233400633</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>199.0862173745079</v>
@@ -3882,7 +3882,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>2.99378101391693</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -4065,13 +4065,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>30.02138295986472</v>
       </c>
       <c r="W45" t="n">
-        <v>206.3302221369781</v>
+        <v>48.91577897135906</v>
       </c>
       <c r="X45" t="n">
-        <v>2.99378101391693</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>195.7359052250833</v>
       </c>
     </row>
     <row r="46">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="F8" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G8" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H8" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O8" t="n">
         <v>20.69689768255142</v>
@@ -4823,31 +4823,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="C9" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="D9" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="E9" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="F9" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="G9" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="H9" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I9" t="n">
         <v>1.304216312122629</v>
@@ -4890,10 +4890,10 @@
         <v>14.16465422792556</v>
       </c>
       <c r="M9" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S9" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="S9" t="n">
-        <v>13.6131814684388</v>
-      </c>
       <c r="T9" t="n">
-        <v>6.667680719235332</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="V9" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="W9" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="X9" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="R10" t="n">
-        <v>21.38658590694733</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="S10" t="n">
-        <v>14.44108515774386</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="T10" t="n">
-        <v>14.44108515774386</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="U10" t="n">
-        <v>14.44108515774386</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="V10" t="n">
-        <v>7.495584408540386</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>785.6642311736684</v>
+        <v>879.634758681264</v>
       </c>
       <c r="C11" t="n">
-        <v>785.6642311736684</v>
+        <v>799.6799432996114</v>
       </c>
       <c r="D11" t="n">
-        <v>560.1055640659289</v>
+        <v>574.1212761918719</v>
       </c>
       <c r="E11" t="n">
-        <v>560.1055640659289</v>
+        <v>574.1212761918719</v>
       </c>
       <c r="F11" t="n">
-        <v>560.1055640659289</v>
+        <v>295.8424029012752</v>
       </c>
       <c r="G11" t="n">
-        <v>273.8200267396592</v>
+        <v>295.8424029012752</v>
       </c>
       <c r="H11" t="n">
-        <v>68.79654251546017</v>
+        <v>90.81891867707638</v>
       </c>
       <c r="I11" t="n">
         <v>30.39867637969093</v>
@@ -5042,22 +5042,22 @@
         <v>60.58931629025222</v>
       </c>
       <c r="K11" t="n">
-        <v>226.5820636478225</v>
+        <v>226.5820636478223</v>
       </c>
       <c r="L11" t="n">
-        <v>484.7873723698838</v>
+        <v>484.7873723698837</v>
       </c>
       <c r="M11" t="n">
-        <v>788.6970746328859</v>
+        <v>788.6970746328858</v>
       </c>
       <c r="N11" t="n">
         <v>1082.892356060502</v>
       </c>
       <c r="O11" t="n">
-        <v>1315.504980085948</v>
+        <v>1315.504980085947</v>
       </c>
       <c r="P11" t="n">
-        <v>1476.360090100873</v>
+        <v>1476.360090100872</v>
       </c>
       <c r="Q11" t="n">
         <v>1519.933818984547</v>
@@ -5069,22 +5069,22 @@
         <v>1453.020477811709</v>
       </c>
       <c r="T11" t="n">
-        <v>1362.589442215804</v>
+        <v>1453.020477811709</v>
       </c>
       <c r="U11" t="n">
-        <v>1241.452387495029</v>
+        <v>1331.883423090934</v>
       </c>
       <c r="V11" t="n">
-        <v>1043.096531650469</v>
+        <v>1133.527567246375</v>
       </c>
       <c r="W11" t="n">
-        <v>1043.096531650469</v>
+        <v>1133.527567246375</v>
       </c>
       <c r="X11" t="n">
-        <v>1043.096531650469</v>
+        <v>1133.527567246375</v>
       </c>
       <c r="Y11" t="n">
-        <v>785.6642311736684</v>
+        <v>1133.527567246375</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>215.4775639821237</v>
+        <v>510.6564125947484</v>
       </c>
       <c r="C12" t="n">
-        <v>173.7315662000077</v>
+        <v>468.9104148126324</v>
       </c>
       <c r="D12" t="n">
-        <v>157.5041880377674</v>
+        <v>452.6830366503921</v>
       </c>
       <c r="E12" t="n">
-        <v>130.973764531323</v>
+        <v>426.1526131439475</v>
       </c>
       <c r="F12" t="n">
-        <v>117.1462380572189</v>
+        <v>279.6180551708325</v>
       </c>
       <c r="G12" t="n">
-        <v>111.3927209889916</v>
+        <v>141.1575066035942</v>
       </c>
       <c r="H12" t="n">
-        <v>111.3927209889916</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="I12" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="J12" t="n">
-        <v>30.39867637969093</v>
+        <v>54.6866350008292</v>
       </c>
       <c r="K12" t="n">
-        <v>198.5315093071581</v>
+        <v>222.8194679282964</v>
       </c>
       <c r="L12" t="n">
-        <v>486.0112483452664</v>
+        <v>510.2992069664047</v>
       </c>
       <c r="M12" t="n">
-        <v>862.1948685439417</v>
+        <v>886.4828271650799</v>
       </c>
       <c r="N12" t="n">
-        <v>871.718309259157</v>
+        <v>886.4828271650799</v>
       </c>
       <c r="O12" t="n">
-        <v>1183.497777268176</v>
+        <v>1198.262295174099</v>
       </c>
       <c r="P12" t="n">
-        <v>1416.72521963145</v>
+        <v>1431.489737537373</v>
       </c>
       <c r="Q12" t="n">
         <v>1519.933818984547</v>
       </c>
       <c r="R12" t="n">
-        <v>1435.545162742124</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="S12" t="n">
-        <v>1399.855123640792</v>
+        <v>1484.243779883214</v>
       </c>
       <c r="T12" t="n">
-        <v>1251.485938826492</v>
+        <v>1283.146590616035</v>
       </c>
       <c r="U12" t="n">
-        <v>1023.280101934601</v>
+        <v>1185.751919048214</v>
       </c>
       <c r="V12" t="n">
-        <v>920.8350252018691</v>
+        <v>1083.306842315483</v>
       </c>
       <c r="W12" t="n">
-        <v>799.3046999726785</v>
+        <v>961.7765170862922</v>
       </c>
       <c r="X12" t="n">
-        <v>591.4531997671456</v>
+        <v>886.6320483797704</v>
       </c>
       <c r="Y12" t="n">
-        <v>383.6929010021918</v>
+        <v>678.8717496148165</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>196.824288200198</v>
+        <v>196.8242882001982</v>
       </c>
       <c r="C13" t="n">
-        <v>160.5951367713021</v>
+        <v>160.5951367713023</v>
       </c>
       <c r="D13" t="n">
-        <v>143.1855288579774</v>
+        <v>143.1855288579775</v>
       </c>
       <c r="E13" t="n">
-        <v>127.9794667745953</v>
+        <v>127.9794667745954</v>
       </c>
       <c r="F13" t="n">
-        <v>113.7965507756959</v>
+        <v>113.796550775696</v>
       </c>
       <c r="G13" t="n">
-        <v>77.04231536884456</v>
+        <v>77.0423153688446</v>
       </c>
       <c r="H13" t="n">
-        <v>47.8981163183628</v>
+        <v>47.89811631836282</v>
       </c>
       <c r="I13" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="J13" t="n">
-        <v>77.34783644153075</v>
+        <v>83.74043787636413</v>
       </c>
       <c r="K13" t="n">
-        <v>81.1029150266651</v>
+        <v>217.5616780336792</v>
       </c>
       <c r="L13" t="n">
-        <v>271.500718962472</v>
+        <v>277.8933203973053</v>
       </c>
       <c r="M13" t="n">
-        <v>475.5672613811497</v>
+        <v>481.959862815983</v>
       </c>
       <c r="N13" t="n">
-        <v>683.3088565641347</v>
+        <v>689.701457998968</v>
       </c>
       <c r="O13" t="n">
-        <v>869.1045576946425</v>
+        <v>875.4971591294757</v>
       </c>
       <c r="P13" t="n">
-        <v>1023.336285705551</v>
+        <v>1029.728887140384</v>
       </c>
       <c r="Q13" t="n">
-        <v>1086.698352718632</v>
+        <v>1086.698352718633</v>
       </c>
       <c r="R13" t="n">
         <v>1050.509507268305</v>
       </c>
       <c r="S13" t="n">
-        <v>960.8860105225561</v>
+        <v>960.8860105225567</v>
       </c>
       <c r="T13" t="n">
-        <v>864.3131335740638</v>
+        <v>864.3131335740643</v>
       </c>
       <c r="U13" t="n">
-        <v>707.8213838197777</v>
+        <v>707.821383819778</v>
       </c>
       <c r="V13" t="n">
-        <v>585.8439271129018</v>
+        <v>585.8439271129021</v>
       </c>
       <c r="W13" t="n">
-        <v>429.1337885749522</v>
+        <v>429.1337885749524</v>
       </c>
       <c r="X13" t="n">
-        <v>333.8512691759458</v>
+        <v>333.8512691759461</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.7657215314267</v>
+        <v>245.7657215314269</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>767.8499831805661</v>
+        <v>1043.942092776685</v>
       </c>
       <c r="C14" t="n">
-        <v>531.5944977391655</v>
+        <v>807.6866073352843</v>
       </c>
       <c r="D14" t="n">
-        <v>306.0358306314261</v>
+        <v>582.1279402275447</v>
       </c>
       <c r="E14" t="n">
-        <v>306.0358306314261</v>
+        <v>582.1279402275447</v>
       </c>
       <c r="F14" t="n">
-        <v>90.81891867707637</v>
+        <v>582.1279402275447</v>
       </c>
       <c r="G14" t="n">
-        <v>90.81891867707637</v>
+        <v>295.8424029012755</v>
       </c>
       <c r="H14" t="n">
-        <v>90.81891867707637</v>
+        <v>90.81891867707638</v>
       </c>
       <c r="I14" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="J14" t="n">
-        <v>60.58931629025222</v>
+        <v>60.58931629025221</v>
       </c>
       <c r="K14" t="n">
         <v>226.5820636478225</v>
       </c>
       <c r="L14" t="n">
-        <v>484.7873723698838</v>
+        <v>484.7873723698839</v>
       </c>
       <c r="M14" t="n">
-        <v>788.6970746328859</v>
+        <v>788.697074632886</v>
       </c>
       <c r="N14" t="n">
         <v>1082.892356060502</v>
@@ -5294,7 +5294,7 @@
         <v>1315.504980085948</v>
       </c>
       <c r="P14" t="n">
-        <v>1476.360090100873</v>
+        <v>1476.360090100872</v>
       </c>
       <c r="Q14" t="n">
         <v>1519.933818984547</v>
@@ -5309,19 +5309,19 @@
         <v>1519.933818984547</v>
       </c>
       <c r="U14" t="n">
-        <v>1519.933818984547</v>
+        <v>1398.796764263772</v>
       </c>
       <c r="V14" t="n">
-        <v>1519.933818984547</v>
+        <v>1398.796764263772</v>
       </c>
       <c r="W14" t="n">
-        <v>1519.933818984547</v>
+        <v>1398.796764263772</v>
       </c>
       <c r="X14" t="n">
-        <v>1279.175092222478</v>
+        <v>1398.796764263772</v>
       </c>
       <c r="Y14" t="n">
-        <v>1021.742791745677</v>
+        <v>1141.364463786971</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>267.190550871834</v>
+        <v>399.8975823708451</v>
       </c>
       <c r="C15" t="n">
-        <v>225.444553089718</v>
+        <v>358.1515845887291</v>
       </c>
       <c r="D15" t="n">
-        <v>76.51014342846675</v>
+        <v>209.2171749274778</v>
       </c>
       <c r="E15" t="n">
-        <v>49.97971992202224</v>
+        <v>182.6867514210333</v>
       </c>
       <c r="F15" t="n">
-        <v>36.15219344791821</v>
+        <v>36.15219344791824</v>
       </c>
       <c r="G15" t="n">
         <v>30.39867637969093</v>
@@ -5355,19 +5355,19 @@
         <v>30.39867637969093</v>
       </c>
       <c r="J15" t="n">
-        <v>30.39867637969093</v>
+        <v>54.6866350008292</v>
       </c>
       <c r="K15" t="n">
-        <v>198.5315093071581</v>
+        <v>222.8194679282964</v>
       </c>
       <c r="L15" t="n">
-        <v>486.0112483452664</v>
+        <v>510.2992069664047</v>
       </c>
       <c r="M15" t="n">
-        <v>862.1948685439417</v>
+        <v>510.2992069664047</v>
       </c>
       <c r="N15" t="n">
-        <v>1183.497777268176</v>
+        <v>871.718309259157</v>
       </c>
       <c r="O15" t="n">
         <v>1183.497777268176</v>
@@ -5379,25 +5379,25 @@
         <v>1519.933818984547</v>
       </c>
       <c r="R15" t="n">
-        <v>1519.933818984547</v>
+        <v>1435.545162742124</v>
       </c>
       <c r="S15" t="n">
-        <v>1484.243779883214</v>
+        <v>1399.855123640792</v>
       </c>
       <c r="T15" t="n">
-        <v>1415.853622115046</v>
+        <v>1331.464965872623</v>
       </c>
       <c r="U15" t="n">
-        <v>1187.647785223155</v>
+        <v>1103.259128980732</v>
       </c>
       <c r="V15" t="n">
-        <v>1085.202708490423</v>
+        <v>868.1070207489897</v>
       </c>
       <c r="W15" t="n">
-        <v>830.9653517622216</v>
+        <v>746.576695519799</v>
       </c>
       <c r="X15" t="n">
-        <v>623.1138515566888</v>
+        <v>643.1661866568561</v>
       </c>
       <c r="Y15" t="n">
         <v>435.4058878919021</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196.824288200198</v>
+        <v>196.8242882001982</v>
       </c>
       <c r="C16" t="n">
-        <v>160.5951367713021</v>
+        <v>160.5951367713023</v>
       </c>
       <c r="D16" t="n">
-        <v>143.1855288579774</v>
+        <v>143.1855288579775</v>
       </c>
       <c r="E16" t="n">
-        <v>127.9794667745953</v>
+        <v>127.9794667745954</v>
       </c>
       <c r="F16" t="n">
-        <v>113.7965507756959</v>
+        <v>113.796550775696</v>
       </c>
       <c r="G16" t="n">
-        <v>77.04231536884456</v>
+        <v>77.0423153688446</v>
       </c>
       <c r="H16" t="n">
-        <v>47.8981163183628</v>
+        <v>47.89811631836282</v>
       </c>
       <c r="I16" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="J16" t="n">
-        <v>77.34783644153075</v>
+        <v>83.74043787636413</v>
       </c>
       <c r="K16" t="n">
-        <v>211.1690765988458</v>
+        <v>217.5616780336792</v>
       </c>
       <c r="L16" t="n">
-        <v>271.500718962472</v>
+        <v>407.959481969486</v>
       </c>
       <c r="M16" t="n">
-        <v>475.5672613811497</v>
+        <v>538.9293283942318</v>
       </c>
       <c r="N16" t="n">
-        <v>683.3088565641347</v>
+        <v>746.6709235772167</v>
       </c>
       <c r="O16" t="n">
-        <v>869.1045576946425</v>
+        <v>932.4666247077245</v>
       </c>
       <c r="P16" t="n">
-        <v>1023.336285705551</v>
+        <v>1086.698352718633</v>
       </c>
       <c r="Q16" t="n">
-        <v>1086.698352718632</v>
+        <v>1086.698352718633</v>
       </c>
       <c r="R16" t="n">
         <v>1050.509507268305</v>
       </c>
       <c r="S16" t="n">
-        <v>960.8860105225561</v>
+        <v>960.8860105225567</v>
       </c>
       <c r="T16" t="n">
-        <v>864.3131335740638</v>
+        <v>864.3131335740643</v>
       </c>
       <c r="U16" t="n">
-        <v>707.8213838197777</v>
+        <v>707.821383819778</v>
       </c>
       <c r="V16" t="n">
-        <v>585.8439271129018</v>
+        <v>585.8439271129021</v>
       </c>
       <c r="W16" t="n">
-        <v>429.1337885749522</v>
+        <v>429.1337885749524</v>
       </c>
       <c r="X16" t="n">
-        <v>333.8512691759458</v>
+        <v>333.8512691759461</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.7657215314267</v>
+        <v>245.7657215314269</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>871.5886968566299</v>
+        <v>871.5886968566286</v>
       </c>
       <c r="C17" t="n">
-        <v>742.5487527506459</v>
+        <v>742.5487527506448</v>
       </c>
       <c r="D17" t="n">
-        <v>624.2056269783232</v>
+        <v>624.2056269783221</v>
       </c>
       <c r="E17" t="n">
-        <v>478.3399472145067</v>
+        <v>478.3399472145057</v>
       </c>
       <c r="F17" t="n">
-        <v>307.2766152593269</v>
+        <v>307.276615259326</v>
       </c>
       <c r="G17" t="n">
-        <v>128.2066192684733</v>
+        <v>128.2066192684732</v>
       </c>
       <c r="H17" t="n">
         <v>30.39867637969093</v>
@@ -5513,37 +5513,37 @@
         <v>30.39867637969093</v>
       </c>
       <c r="J17" t="n">
-        <v>60.58931629025233</v>
+        <v>60.58931629025222</v>
       </c>
       <c r="K17" t="n">
-        <v>226.5820636478226</v>
+        <v>226.5820636478225</v>
       </c>
       <c r="L17" t="n">
-        <v>484.7873723698839</v>
+        <v>484.7873723698838</v>
       </c>
       <c r="M17" t="n">
-        <v>788.697074632886</v>
+        <v>788.6970746328859</v>
       </c>
       <c r="N17" t="n">
         <v>1082.892356060502</v>
       </c>
       <c r="O17" t="n">
-        <v>1315.504980085947</v>
+        <v>1315.504980085948</v>
       </c>
       <c r="P17" t="n">
-        <v>1476.360090100872</v>
+        <v>1476.360090100873</v>
       </c>
       <c r="Q17" t="n">
-        <v>1519.933818984546</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="R17" t="n">
-        <v>1519.933818984546</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="S17" t="n">
-        <v>1519.933818984546</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="T17" t="n">
-        <v>1519.933818984546</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="U17" t="n">
         <v>1506.012305599189</v>
@@ -5552,7 +5552,7 @@
         <v>1414.871991090046</v>
       </c>
       <c r="W17" t="n">
-        <v>1302.02590865436</v>
+        <v>1302.025908654359</v>
       </c>
       <c r="X17" t="n">
         <v>1168.482723227708</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>815.3185224199551</v>
+        <v>428.5524648320838</v>
       </c>
       <c r="C18" t="n">
-        <v>815.3185224199551</v>
+        <v>428.5524648320838</v>
       </c>
       <c r="D18" t="n">
-        <v>666.3841127587038</v>
+        <v>279.6180551708325</v>
       </c>
       <c r="E18" t="n">
-        <v>507.1466577532483</v>
+        <v>279.6180551708325</v>
       </c>
       <c r="F18" t="n">
-        <v>360.6120997801332</v>
+        <v>279.6180551708325</v>
       </c>
       <c r="G18" t="n">
-        <v>222.151551212895</v>
+        <v>141.1575066035942</v>
       </c>
       <c r="H18" t="n">
-        <v>111.3927209889916</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="I18" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="J18" t="n">
-        <v>54.68663500082919</v>
+        <v>54.6866350008292</v>
       </c>
       <c r="K18" t="n">
-        <v>222.8194679282963</v>
+        <v>54.6866350008292</v>
       </c>
       <c r="L18" t="n">
-        <v>510.2992069664047</v>
+        <v>342.1663740389375</v>
       </c>
       <c r="M18" t="n">
-        <v>510.2992069664047</v>
+        <v>718.3499942376127</v>
       </c>
       <c r="N18" t="n">
-        <v>871.7183092591567</v>
+        <v>1094.533614436288</v>
       </c>
       <c r="O18" t="n">
-        <v>1183.497777268175</v>
+        <v>1406.313082445307</v>
       </c>
       <c r="P18" t="n">
         <v>1416.72521963145</v>
       </c>
       <c r="Q18" t="n">
-        <v>1519.933818984546</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="R18" t="n">
-        <v>1494.088440704542</v>
+        <v>1435.545162742124</v>
       </c>
       <c r="S18" t="n">
-        <v>1494.088440704542</v>
+        <v>1267.148092141781</v>
       </c>
       <c r="T18" t="n">
-        <v>1292.991251437363</v>
+        <v>1066.050902874601</v>
       </c>
       <c r="U18" t="n">
-        <v>1064.785414545472</v>
+        <v>837.8450659827106</v>
       </c>
       <c r="V18" t="n">
-        <v>829.633306313729</v>
+        <v>650.6275474908115</v>
       </c>
       <c r="W18" t="n">
-        <v>815.3185224199551</v>
+        <v>636.3127635970377</v>
       </c>
       <c r="X18" t="n">
-        <v>815.3185224199551</v>
+        <v>636.3127635970377</v>
       </c>
       <c r="Y18" t="n">
-        <v>815.3185224199551</v>
+        <v>428.5524648320838</v>
       </c>
     </row>
     <row r="19">
@@ -5674,13 +5674,13 @@
         <v>30.39867637969093</v>
       </c>
       <c r="K19" t="n">
-        <v>34.15375496482529</v>
+        <v>34.1537549648253</v>
       </c>
       <c r="L19" t="n">
         <v>94.48539732845148</v>
       </c>
       <c r="M19" t="n">
-        <v>168.4857781749485</v>
+        <v>168.4857781749486</v>
       </c>
       <c r="N19" t="n">
         <v>246.1612117857528</v>
@@ -5689,28 +5689,28 @@
         <v>301.8907513440799</v>
       </c>
       <c r="P19" t="n">
-        <v>326.0563177828078</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.0563177828078</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="R19" t="n">
-        <v>326.0563177828078</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="S19" t="n">
-        <v>143.9313973725524</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="T19" t="n">
-        <v>143.9313973725524</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="U19" t="n">
-        <v>94.65518895368292</v>
+        <v>276.7801093639384</v>
       </c>
       <c r="V19" t="n">
-        <v>79.8932735822238</v>
+        <v>262.0181939924794</v>
       </c>
       <c r="W19" t="n">
-        <v>30.39867637969093</v>
+        <v>212.5235967899466</v>
       </c>
       <c r="X19" t="n">
         <v>30.39867637969093</v>
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>871.5886968566291</v>
+        <v>871.5886968566294</v>
       </c>
       <c r="C20" t="n">
-        <v>742.5487527506451</v>
+        <v>742.5487527506456</v>
       </c>
       <c r="D20" t="n">
-        <v>624.2056269783224</v>
+        <v>624.2056269783229</v>
       </c>
       <c r="E20" t="n">
-        <v>478.3399472145059</v>
+        <v>478.3399472145065</v>
       </c>
       <c r="F20" t="n">
-        <v>307.276615259326</v>
+        <v>307.2766152593268</v>
       </c>
       <c r="G20" t="n">
-        <v>128.2066192684733</v>
+        <v>128.2066192684732</v>
       </c>
       <c r="H20" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="I20" t="n">
-        <v>30.39867637969093</v>
+        <v>30.39867637969076</v>
       </c>
       <c r="J20" t="n">
-        <v>60.58931629025222</v>
+        <v>60.58931629025204</v>
       </c>
       <c r="K20" t="n">
-        <v>226.5820636478225</v>
+        <v>226.5820636478223</v>
       </c>
       <c r="L20" t="n">
-        <v>484.7873723698838</v>
+        <v>484.7873723698837</v>
       </c>
       <c r="M20" t="n">
-        <v>788.6970746328859</v>
+        <v>788.6970746328858</v>
       </c>
       <c r="N20" t="n">
         <v>1082.892356060502</v>
       </c>
       <c r="O20" t="n">
-        <v>1315.504980085948</v>
+        <v>1315.504980085947</v>
       </c>
       <c r="P20" t="n">
-        <v>1476.360090100873</v>
+        <v>1476.360090100872</v>
       </c>
       <c r="Q20" t="n">
         <v>1519.933818984547</v>
@@ -5783,7 +5783,7 @@
         <v>1519.933818984547</v>
       </c>
       <c r="U20" t="n">
-        <v>1506.012305599188</v>
+        <v>1506.012305599189</v>
       </c>
       <c r="V20" t="n">
         <v>1414.871991090046</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>566.0991436288134</v>
+        <v>661.0500941570795</v>
       </c>
       <c r="C21" t="n">
-        <v>566.0991436288134</v>
+        <v>486.5970648759525</v>
       </c>
       <c r="D21" t="n">
-        <v>417.1647339675622</v>
+        <v>337.6626552147012</v>
       </c>
       <c r="E21" t="n">
-        <v>257.9272789621067</v>
+        <v>337.6626552147012</v>
       </c>
       <c r="F21" t="n">
-        <v>111.3927209889916</v>
+        <v>337.6626552147012</v>
       </c>
       <c r="G21" t="n">
-        <v>111.3927209889916</v>
+        <v>199.2021066474629</v>
       </c>
       <c r="H21" t="n">
         <v>111.3927209889916</v>
@@ -5832,19 +5832,19 @@
         <v>54.6866350008292</v>
       </c>
       <c r="K21" t="n">
-        <v>222.8194679282963</v>
+        <v>222.8194679282964</v>
       </c>
       <c r="L21" t="n">
-        <v>510.2992069664047</v>
+        <v>495.5346890604817</v>
       </c>
       <c r="M21" t="n">
-        <v>886.4828271650799</v>
+        <v>495.5346890604817</v>
       </c>
       <c r="N21" t="n">
-        <v>1262.666447363755</v>
+        <v>871.718309259157</v>
       </c>
       <c r="O21" t="n">
-        <v>1262.666447363755</v>
+        <v>1183.497777268176</v>
       </c>
       <c r="P21" t="n">
         <v>1416.72521963145</v>
@@ -5856,25 +5856,25 @@
         <v>1519.933818984547</v>
       </c>
       <c r="S21" t="n">
-        <v>1519.933818984547</v>
+        <v>1351.536748384203</v>
       </c>
       <c r="T21" t="n">
-        <v>1424.517973033928</v>
+        <v>1150.439559117024</v>
       </c>
       <c r="U21" t="n">
-        <v>1196.312136142037</v>
+        <v>1150.439559117024</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.312136142037</v>
+        <v>915.287450885281</v>
       </c>
       <c r="W21" t="n">
-        <v>942.0747794138354</v>
+        <v>661.0500941570795</v>
       </c>
       <c r="X21" t="n">
-        <v>942.0747794138354</v>
+        <v>661.0500941570795</v>
       </c>
       <c r="Y21" t="n">
-        <v>734.3144806488815</v>
+        <v>661.0500941570795</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.39867637969093</v>
+        <v>178.311769962084</v>
       </c>
       <c r="C22" t="n">
-        <v>30.39867637969093</v>
+        <v>178.311769962084</v>
       </c>
       <c r="D22" t="n">
-        <v>30.39867637969093</v>
+        <v>178.311769962084</v>
       </c>
       <c r="E22" t="n">
         <v>30.39867637969093</v>
@@ -5911,13 +5911,13 @@
         <v>30.39867637969093</v>
       </c>
       <c r="K22" t="n">
-        <v>34.15375496482529</v>
+        <v>34.1537549648253</v>
       </c>
       <c r="L22" t="n">
         <v>94.48539732845148</v>
       </c>
       <c r="M22" t="n">
-        <v>168.4857781749485</v>
+        <v>168.4857781749486</v>
       </c>
       <c r="N22" t="n">
         <v>246.1612117857528</v>
@@ -5926,34 +5926,34 @@
         <v>301.8907513440799</v>
       </c>
       <c r="P22" t="n">
-        <v>326.0563177828078</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.0563177828078</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="R22" t="n">
-        <v>326.0563177828078</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="S22" t="n">
-        <v>326.0563177828078</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="T22" t="n">
-        <v>326.0563177828078</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="U22" t="n">
-        <v>276.7801093639383</v>
+        <v>276.7801093639384</v>
       </c>
       <c r="V22" t="n">
-        <v>262.0181939924792</v>
+        <v>227.8063671646169</v>
       </c>
       <c r="W22" t="n">
-        <v>30.39867637969093</v>
+        <v>178.311769962084</v>
       </c>
       <c r="X22" t="n">
-        <v>30.39867637969093</v>
+        <v>178.311769962084</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.39867637969093</v>
+        <v>178.311769962084</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>871.5886968566294</v>
+        <v>871.5886968566288</v>
       </c>
       <c r="C23" t="n">
-        <v>742.5487527506455</v>
+        <v>742.5487527506449</v>
       </c>
       <c r="D23" t="n">
-        <v>624.2056269783227</v>
+        <v>624.2056269783222</v>
       </c>
       <c r="E23" t="n">
-        <v>478.3399472145062</v>
+        <v>478.3399472145059</v>
       </c>
       <c r="F23" t="n">
-        <v>307.2766152593264</v>
+        <v>307.2766152593261</v>
       </c>
       <c r="G23" t="n">
-        <v>128.2066192684733</v>
+        <v>128.2066192684732</v>
       </c>
       <c r="H23" t="n">
         <v>30.39867637969093</v>
@@ -6017,19 +6017,19 @@
         <v>1519.933818984547</v>
       </c>
       <c r="T23" t="n">
-        <v>1519.933818984547</v>
+        <v>1519.933818984546</v>
       </c>
       <c r="U23" t="n">
-        <v>1506.012305599189</v>
+        <v>1506.012305599188</v>
       </c>
       <c r="V23" t="n">
-        <v>1414.871991090046</v>
+        <v>1414.871991090045</v>
       </c>
       <c r="W23" t="n">
-        <v>1302.02590865436</v>
+        <v>1302.025908654359</v>
       </c>
       <c r="X23" t="n">
-        <v>1168.482723227708</v>
+        <v>1168.482723227707</v>
       </c>
       <c r="Y23" t="n">
         <v>1018.265964086323</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>681.8693262657903</v>
+        <v>623.7824005514281</v>
       </c>
       <c r="C24" t="n">
-        <v>507.4162969846633</v>
+        <v>449.329371270301</v>
       </c>
       <c r="D24" t="n">
-        <v>358.481887323412</v>
+        <v>300.3949616090497</v>
       </c>
       <c r="E24" t="n">
-        <v>199.2444323179565</v>
+        <v>141.1575066035942</v>
       </c>
       <c r="F24" t="n">
-        <v>52.7098743448415</v>
+        <v>141.1575066035942</v>
       </c>
       <c r="G24" t="n">
-        <v>52.7098743448415</v>
+        <v>141.1575066035942</v>
       </c>
       <c r="H24" t="n">
-        <v>52.7098743448415</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="I24" t="n">
         <v>30.39867637969093</v>
@@ -6069,16 +6069,16 @@
         <v>54.6866350008292</v>
       </c>
       <c r="K24" t="n">
-        <v>222.8194679282963</v>
+        <v>54.6866350008292</v>
       </c>
       <c r="L24" t="n">
-        <v>510.2992069664047</v>
+        <v>342.1663740389375</v>
       </c>
       <c r="M24" t="n">
-        <v>886.4828271650799</v>
+        <v>495.5346890604817</v>
       </c>
       <c r="N24" t="n">
-        <v>1183.497777268176</v>
+        <v>871.718309259157</v>
       </c>
       <c r="O24" t="n">
         <v>1183.497777268176</v>
@@ -6090,28 +6090,28 @@
         <v>1519.933818984547</v>
       </c>
       <c r="R24" t="n">
-        <v>1519.933818984547</v>
+        <v>1435.545162742124</v>
       </c>
       <c r="S24" t="n">
-        <v>1519.933818984547</v>
+        <v>1267.148092141781</v>
       </c>
       <c r="T24" t="n">
-        <v>1519.933818984547</v>
+        <v>1267.148092141781</v>
       </c>
       <c r="U24" t="n">
-        <v>1519.933818984547</v>
+        <v>1267.148092141781</v>
       </c>
       <c r="V24" t="n">
-        <v>1519.933818984547</v>
+        <v>1031.995983910038</v>
       </c>
       <c r="W24" t="n">
-        <v>1265.696462256345</v>
+        <v>1017.681200016265</v>
       </c>
       <c r="X24" t="n">
-        <v>1057.844962050812</v>
+        <v>999.75803633645</v>
       </c>
       <c r="Y24" t="n">
-        <v>850.0846632858584</v>
+        <v>791.9977375714961</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.6808925571294</v>
+        <v>178.311769962084</v>
       </c>
       <c r="C25" t="n">
-        <v>108.6808925571294</v>
+        <v>178.311769962084</v>
       </c>
       <c r="D25" t="n">
-        <v>108.6808925571294</v>
+        <v>178.311769962084</v>
       </c>
       <c r="E25" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="F25" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="G25" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="H25" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="I25" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="J25" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="K25" t="n">
-        <v>34.15375496482529</v>
+        <v>34.1537549648253</v>
       </c>
       <c r="L25" t="n">
         <v>94.48539732845148</v>
       </c>
       <c r="M25" t="n">
-        <v>168.4857781749485</v>
+        <v>168.4857781749486</v>
       </c>
       <c r="N25" t="n">
         <v>246.1612117857528</v>
@@ -6163,34 +6163,34 @@
         <v>301.8907513440799</v>
       </c>
       <c r="P25" t="n">
-        <v>326.0563177828078</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="Q25" t="n">
-        <v>257.997859912081</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="R25" t="n">
-        <v>257.997859912081</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="S25" t="n">
-        <v>222.213613549991</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="T25" t="n">
-        <v>222.213613549991</v>
+        <v>326.0563177828079</v>
       </c>
       <c r="U25" t="n">
-        <v>172.9374051311215</v>
+        <v>276.7801093639384</v>
       </c>
       <c r="V25" t="n">
-        <v>158.1754897596623</v>
+        <v>262.0181939924794</v>
       </c>
       <c r="W25" t="n">
-        <v>108.6808925571294</v>
+        <v>212.5235967899466</v>
       </c>
       <c r="X25" t="n">
-        <v>108.6808925571294</v>
+        <v>212.5235967899466</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.6808925571294</v>
+        <v>212.5235967899466</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>1467.668723218726</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.347290426859</v>
+        <v>1250.347290426858</v>
       </c>
       <c r="D26" t="n">
-        <v>1043.722675968652</v>
+        <v>1043.722675968651</v>
       </c>
       <c r="E26" t="n">
-        <v>809.5755075189521</v>
+        <v>809.5755075189511</v>
       </c>
       <c r="F26" t="n">
-        <v>550.2306868778885</v>
+        <v>550.2306868778876</v>
       </c>
       <c r="G26" t="n">
-        <v>282.8792022011517</v>
+        <v>282.879202201151</v>
       </c>
       <c r="H26" t="n">
         <v>96.78977062648491</v>
       </c>
       <c r="I26" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J26" t="n">
-        <v>234.1176474631817</v>
+        <v>234.1176474631818</v>
       </c>
       <c r="K26" t="n">
-        <v>548.7338213947398</v>
+        <v>548.7338213947401</v>
       </c>
       <c r="L26" t="n">
-        <v>955.5625566907891</v>
+        <v>955.5625566907892</v>
       </c>
       <c r="M26" t="n">
         <v>1408.095685527779</v>
       </c>
       <c r="N26" t="n">
-        <v>1850.914393529383</v>
+        <v>1850.914393529384</v>
       </c>
       <c r="O26" t="n">
         <v>2232.150444128817</v>
@@ -6248,7 +6248,7 @@
         <v>2733.826136175392</v>
       </c>
       <c r="R26" t="n">
-        <v>2765.179048931623</v>
+        <v>2765.179048931624</v>
       </c>
       <c r="S26" t="n">
         <v>2717.199760408319</v>
@@ -6257,19 +6257,19 @@
         <v>2645.702777461946</v>
       </c>
       <c r="U26" t="n">
-        <v>2543.499775390705</v>
+        <v>2543.499775390704</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.077972195678</v>
+        <v>2364.077972195677</v>
       </c>
       <c r="W26" t="n">
-        <v>2162.950401074108</v>
+        <v>2162.950401074107</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.125726961572</v>
+        <v>1941.125726961571</v>
       </c>
       <c r="Y26" t="n">
-        <v>1702.627479134304</v>
+        <v>1702.627479134303</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>578.0402656111263</v>
+        <v>683.9083364532314</v>
       </c>
       <c r="C27" t="n">
-        <v>403.5872363299993</v>
+        <v>509.4553071721044</v>
       </c>
       <c r="D27" t="n">
-        <v>254.652826668748</v>
+        <v>509.4553071721044</v>
       </c>
       <c r="E27" t="n">
-        <v>247.0564558118365</v>
+        <v>350.2178521666489</v>
       </c>
       <c r="F27" t="n">
-        <v>247.0564558118365</v>
+        <v>203.6832941935339</v>
       </c>
       <c r="G27" t="n">
-        <v>247.0564558118365</v>
+        <v>65.22274562629562</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2976255879332</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="I27" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J27" t="n">
-        <v>79.59153959977073</v>
+        <v>79.59153959977074</v>
       </c>
       <c r="K27" t="n">
         <v>247.7243725272379</v>
       </c>
       <c r="L27" t="n">
-        <v>535.2041115653461</v>
+        <v>535.2041115653462</v>
       </c>
       <c r="M27" t="n">
         <v>922.658629119833</v>
@@ -6327,28 +6327,28 @@
         <v>1984.290437959935</v>
       </c>
       <c r="R27" t="n">
-        <v>1984.290437959935</v>
+        <v>1899.901781717512</v>
       </c>
       <c r="S27" t="n">
-        <v>1815.893367359591</v>
+        <v>1731.504711117169</v>
       </c>
       <c r="T27" t="n">
-        <v>1727.821619304972</v>
+        <v>1682.048605998533</v>
       </c>
       <c r="U27" t="n">
-        <v>1499.615782413081</v>
+        <v>1605.483853255186</v>
       </c>
       <c r="V27" t="n">
-        <v>1264.463674181339</v>
+        <v>1370.331745023444</v>
       </c>
       <c r="W27" t="n">
-        <v>1010.226317453137</v>
+        <v>1267.735472443786</v>
       </c>
       <c r="X27" t="n">
-        <v>802.3748172476044</v>
+        <v>1059.883972238253</v>
       </c>
       <c r="Y27" t="n">
-        <v>594.6145184826504</v>
+        <v>852.1236734732995</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.13490063030493</v>
+        <v>94.47831159901881</v>
       </c>
       <c r="C28" t="n">
-        <v>81.83980185094198</v>
+        <v>77.18321281965589</v>
       </c>
       <c r="D28" t="n">
-        <v>83.33391013689968</v>
+        <v>78.67732110561361</v>
       </c>
       <c r="E28" t="n">
-        <v>83.33391013689968</v>
+        <v>78.67732110561361</v>
       </c>
       <c r="F28" t="n">
-        <v>83.33391013689968</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="G28" t="n">
-        <v>65.51372737958125</v>
+        <v>65.51372737958124</v>
       </c>
       <c r="H28" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="I28" t="n">
-        <v>55.30358097863246</v>
+        <v>56.70964489654747</v>
       </c>
       <c r="J28" t="n">
-        <v>127.2026074771129</v>
+        <v>56.70964489654747</v>
       </c>
       <c r="K28" t="n">
-        <v>229.4530753369845</v>
+        <v>60.46472348168183</v>
       </c>
       <c r="L28" t="n">
-        <v>438.4081442745986</v>
+        <v>120.796365845308</v>
       </c>
       <c r="M28" t="n">
-        <v>512.4085251210956</v>
+        <v>277.2091775009328</v>
       </c>
       <c r="N28" t="n">
-        <v>738.7073853058878</v>
+        <v>503.508037685725</v>
       </c>
       <c r="O28" t="n">
-        <v>794.4369248642149</v>
+        <v>559.2375772440521</v>
       </c>
       <c r="P28" t="n">
-        <v>818.6024913029429</v>
+        <v>732.026570256768</v>
       </c>
       <c r="Q28" t="n">
-        <v>818.6024913029429</v>
+        <v>813.9459022716566</v>
       </c>
       <c r="R28" t="n">
-        <v>801.347698502148</v>
+        <v>796.6911094708616</v>
       </c>
       <c r="S28" t="n">
-        <v>730.6582544059324</v>
+        <v>726.0016653746461</v>
       </c>
       <c r="T28" t="n">
-        <v>653.0194301069731</v>
+        <v>648.3628410756868</v>
       </c>
       <c r="U28" t="n">
-        <v>515.4617330022198</v>
+        <v>510.8051439709336</v>
       </c>
       <c r="V28" t="n">
-        <v>412.4183289448769</v>
+        <v>407.7617399135906</v>
       </c>
       <c r="W28" t="n">
-        <v>274.6422430564602</v>
+        <v>269.985654025174</v>
       </c>
       <c r="X28" t="n">
-        <v>198.2937763069868</v>
+        <v>193.6371872757006</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.1422813120007</v>
+        <v>124.4856922807145</v>
       </c>
     </row>
     <row r="29">
@@ -6443,64 +6443,64 @@
         <v>1250.347290426858</v>
       </c>
       <c r="D29" t="n">
-        <v>1043.722675968652</v>
+        <v>1043.722675968651</v>
       </c>
       <c r="E29" t="n">
-        <v>809.5755075189513</v>
+        <v>809.5755075189511</v>
       </c>
       <c r="F29" t="n">
-        <v>550.2306868778878</v>
+        <v>550.2306868778876</v>
       </c>
       <c r="G29" t="n">
-        <v>282.879202201151</v>
+        <v>282.8792022011507</v>
       </c>
       <c r="H29" t="n">
         <v>96.78977062648491</v>
       </c>
       <c r="I29" t="n">
-        <v>55.30358097863247</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1176474631817</v>
+        <v>234.1176474631818</v>
       </c>
       <c r="K29" t="n">
-        <v>548.7338213947399</v>
+        <v>548.7338213947401</v>
       </c>
       <c r="L29" t="n">
-        <v>955.5625566907892</v>
+        <v>955.5625566907894</v>
       </c>
       <c r="M29" t="n">
         <v>1408.09568552778</v>
       </c>
       <c r="N29" t="n">
-        <v>1850.914393529384</v>
+        <v>1850.914393529383</v>
       </c>
       <c r="O29" t="n">
-        <v>2232.150444128818</v>
+        <v>2232.150444128817</v>
       </c>
       <c r="P29" t="n">
         <v>2541.62898071773</v>
       </c>
       <c r="Q29" t="n">
-        <v>2733.826136175393</v>
+        <v>2733.826136175392</v>
       </c>
       <c r="R29" t="n">
-        <v>2765.179048931624</v>
+        <v>2765.179048931623</v>
       </c>
       <c r="S29" t="n">
-        <v>2717.199760408319</v>
+        <v>2717.199760408318</v>
       </c>
       <c r="T29" t="n">
         <v>2645.702777461946</v>
       </c>
       <c r="U29" t="n">
-        <v>2543.499775390705</v>
+        <v>2543.499775390704</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.077972195678</v>
+        <v>2364.077972195677</v>
       </c>
       <c r="W29" t="n">
-        <v>2162.950401074108</v>
+        <v>2162.950401074107</v>
       </c>
       <c r="X29" t="n">
         <v>1941.125726961571</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>768.2969926956537</v>
+        <v>787.1478537176077</v>
       </c>
       <c r="C30" t="n">
-        <v>593.8439634145267</v>
+        <v>612.6948244364808</v>
       </c>
       <c r="D30" t="n">
-        <v>444.9095537532754</v>
+        <v>463.7604147752295</v>
       </c>
       <c r="E30" t="n">
-        <v>285.6720987478199</v>
+        <v>304.522959769774</v>
       </c>
       <c r="F30" t="n">
-        <v>139.1375407747049</v>
+        <v>304.522959769774</v>
       </c>
       <c r="G30" t="n">
-        <v>139.1375407747049</v>
+        <v>166.0624112025358</v>
       </c>
       <c r="H30" t="n">
-        <v>136.2976255879332</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="I30" t="n">
-        <v>55.30358097863247</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="J30" t="n">
-        <v>79.59153959977074</v>
+        <v>79.59153959977073</v>
       </c>
       <c r="K30" t="n">
         <v>247.7243725272379</v>
@@ -6564,28 +6564,28 @@
         <v>1984.290437959935</v>
       </c>
       <c r="R30" t="n">
-        <v>1984.290437959935</v>
+        <v>1899.901781717512</v>
       </c>
       <c r="S30" t="n">
-        <v>1967.534451508135</v>
+        <v>1731.504711117169</v>
       </c>
       <c r="T30" t="n">
-        <v>1918.0783463895</v>
+        <v>1530.407521849989</v>
       </c>
       <c r="U30" t="n">
-        <v>1841.513593646153</v>
+        <v>1302.201684958098</v>
       </c>
       <c r="V30" t="n">
-        <v>1606.36148541441</v>
+        <v>1067.049576726356</v>
       </c>
       <c r="W30" t="n">
-        <v>1352.124128686208</v>
+        <v>964.4533041466981</v>
       </c>
       <c r="X30" t="n">
-        <v>1144.272628480676</v>
+        <v>908.2428880897093</v>
       </c>
       <c r="Y30" t="n">
-        <v>936.5123297157218</v>
+        <v>852.1236734732993</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.6290089162626</v>
+        <v>92.31861633109203</v>
       </c>
       <c r="C31" t="n">
-        <v>83.33391013689965</v>
+        <v>75.02351755172911</v>
       </c>
       <c r="D31" t="n">
-        <v>83.33391013689965</v>
+        <v>75.02351755172911</v>
       </c>
       <c r="E31" t="n">
-        <v>83.33391013689965</v>
+        <v>78.67732110561359</v>
       </c>
       <c r="F31" t="n">
-        <v>83.33391013689965</v>
+        <v>83.33391013689962</v>
       </c>
       <c r="G31" t="n">
-        <v>65.51372737958124</v>
+        <v>65.51372737958123</v>
       </c>
       <c r="H31" t="n">
-        <v>55.30358097863247</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="I31" t="n">
-        <v>56.70964489654747</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="J31" t="n">
-        <v>128.608671395028</v>
+        <v>127.202607477113</v>
       </c>
       <c r="K31" t="n">
-        <v>280.9871765541503</v>
+        <v>130.9576860622473</v>
       </c>
       <c r="L31" t="n">
-        <v>489.9422454917645</v>
+        <v>339.9127549998615</v>
       </c>
       <c r="M31" t="n">
-        <v>662.526059981041</v>
+        <v>413.9131358463586</v>
       </c>
       <c r="N31" t="n">
-        <v>740.2014935918453</v>
+        <v>640.2119960311508</v>
       </c>
       <c r="O31" t="n">
-        <v>795.9310331501724</v>
+        <v>787.6206405650017</v>
       </c>
       <c r="P31" t="n">
-        <v>820.0965995889003</v>
+        <v>811.7862070037297</v>
       </c>
       <c r="Q31" t="n">
-        <v>820.0965995889003</v>
+        <v>811.7862070037297</v>
       </c>
       <c r="R31" t="n">
-        <v>802.8418067881054</v>
+        <v>794.5314142029348</v>
       </c>
       <c r="S31" t="n">
-        <v>732.1523626918898</v>
+        <v>723.8419701067193</v>
       </c>
       <c r="T31" t="n">
-        <v>654.5135383929305</v>
+        <v>646.2031458077599</v>
       </c>
       <c r="U31" t="n">
-        <v>516.9558412881772</v>
+        <v>508.6454487030067</v>
       </c>
       <c r="V31" t="n">
-        <v>413.9124372308344</v>
+        <v>405.6020446456638</v>
       </c>
       <c r="W31" t="n">
-        <v>276.1363513424177</v>
+        <v>267.8259587572472</v>
       </c>
       <c r="X31" t="n">
-        <v>199.7878845929444</v>
+        <v>191.4774920077738</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.6363895979583</v>
+        <v>122.3259970127877</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1454.540059882552</v>
+        <v>1454.540059882551</v>
       </c>
       <c r="C32" t="n">
-        <v>1239.015567044518</v>
+        <v>1239.015567044517</v>
       </c>
       <c r="D32" t="n">
         <v>1034.187892540145</v>
       </c>
       <c r="E32" t="n">
-        <v>801.8376640442788</v>
+        <v>801.8376640442784</v>
       </c>
       <c r="F32" t="n">
-        <v>544.2897833570491</v>
+        <v>544.2897833570488</v>
       </c>
       <c r="G32" t="n">
         <v>278.7352386341461</v>
       </c>
       <c r="H32" t="n">
-        <v>94.44274701331408</v>
+        <v>94.44274701331403</v>
       </c>
       <c r="I32" t="n">
         <v>54.75349731929555</v>
@@ -6701,13 +6701,13 @@
         <v>235.3287446525974</v>
       </c>
       <c r="K32" t="n">
-        <v>551.7060994329082</v>
+        <v>551.7060994329083</v>
       </c>
       <c r="L32" t="n">
-        <v>960.29601557771</v>
+        <v>960.2960155777102</v>
       </c>
       <c r="M32" t="n">
-        <v>1371.785598317171</v>
+        <v>1414.590325263453</v>
       </c>
       <c r="N32" t="n">
         <v>1816.365487167527</v>
@@ -6716,34 +6716,34 @@
         <v>2199.362718615713</v>
       </c>
       <c r="P32" t="n">
-        <v>2510.602436053379</v>
+        <v>2510.602436053378</v>
       </c>
       <c r="Q32" t="n">
-        <v>2704.560772359794</v>
+        <v>2704.560772359793</v>
       </c>
       <c r="R32" t="n">
-        <v>2737.674865964778</v>
+        <v>2737.674865964777</v>
       </c>
       <c r="S32" t="n">
         <v>2691.492517395307</v>
       </c>
       <c r="T32" t="n">
-        <v>2621.792474402768</v>
+        <v>2621.792474402767</v>
       </c>
       <c r="U32" t="n">
-        <v>2521.38641228536</v>
+        <v>2521.386412285359</v>
       </c>
       <c r="V32" t="n">
-        <v>2343.761549044168</v>
+        <v>2343.761549044167</v>
       </c>
       <c r="W32" t="n">
-        <v>2144.430917876432</v>
+        <v>2144.430917876431</v>
       </c>
       <c r="X32" t="n">
         <v>1924.403183717729</v>
       </c>
       <c r="Y32" t="n">
-        <v>1687.701875844296</v>
+        <v>1687.701875844295</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>683.9129492402443</v>
+        <v>1629.600335737628</v>
       </c>
       <c r="C33" t="n">
-        <v>509.4599199591173</v>
+        <v>1455.147306456501</v>
       </c>
       <c r="D33" t="n">
-        <v>360.525510297866</v>
+        <v>1306.21289679525</v>
       </c>
       <c r="E33" t="n">
-        <v>201.2880552924106</v>
+        <v>1146.975441789794</v>
       </c>
       <c r="F33" t="n">
-        <v>54.75349731929555</v>
+        <v>1000.440883816679</v>
       </c>
       <c r="G33" t="n">
-        <v>54.75349731929555</v>
+        <v>1000.440883816679</v>
       </c>
       <c r="H33" t="n">
-        <v>54.75349731929555</v>
+        <v>889.6820535927759</v>
       </c>
       <c r="I33" t="n">
-        <v>54.75349731929555</v>
+        <v>808.6880089834752</v>
       </c>
       <c r="J33" t="n">
-        <v>79.04145594043382</v>
+        <v>832.9759676046135</v>
       </c>
       <c r="K33" t="n">
-        <v>247.174288867901</v>
+        <v>1001.108800532081</v>
       </c>
       <c r="L33" t="n">
-        <v>534.6540279060092</v>
+        <v>1288.588539570189</v>
       </c>
       <c r="M33" t="n">
-        <v>922.1085454604961</v>
+        <v>1676.043057124676</v>
       </c>
       <c r="N33" t="n">
-        <v>1335.524844575208</v>
+        <v>2089.459356239388</v>
       </c>
       <c r="O33" t="n">
-        <v>1647.304312584227</v>
+        <v>2401.238824248407</v>
       </c>
       <c r="P33" t="n">
-        <v>1880.531754947501</v>
+        <v>2634.466266611681</v>
       </c>
       <c r="Q33" t="n">
-        <v>1983.740354300598</v>
+        <v>2737.674865964777</v>
       </c>
       <c r="R33" t="n">
-        <v>1983.740354300598</v>
+        <v>2653.286209722355</v>
       </c>
       <c r="S33" t="n">
-        <v>1879.556528145058</v>
+        <v>2484.889139122012</v>
       </c>
       <c r="T33" t="n">
-        <v>1831.897362980256</v>
+        <v>2437.22997395721</v>
       </c>
       <c r="U33" t="n">
-        <v>1757.129550190743</v>
+        <v>2362.462161167697</v>
       </c>
       <c r="V33" t="n">
-        <v>1521.977441959001</v>
+        <v>2127.310052935954</v>
       </c>
       <c r="W33" t="n">
-        <v>1267.740085230799</v>
+        <v>2026.510720310131</v>
       </c>
       <c r="X33" t="n">
-        <v>1059.888585025266</v>
+        <v>1972.097244206976</v>
       </c>
       <c r="Y33" t="n">
-        <v>852.1282862603123</v>
+        <v>1797.815672757696</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.68810539542392</v>
+        <v>88.27033551538517</v>
       </c>
       <c r="C34" t="n">
-        <v>79.1899465698949</v>
+        <v>72.77217668985618</v>
       </c>
       <c r="D34" t="n">
-        <v>79.1899465698949</v>
+        <v>72.77217668985618</v>
       </c>
       <c r="E34" t="n">
-        <v>79.1899465698949</v>
+        <v>72.77217668985618</v>
       </c>
       <c r="F34" t="n">
-        <v>79.1899465698949</v>
+        <v>79.18994656989484</v>
       </c>
       <c r="G34" t="n">
-        <v>63.16670376641041</v>
+        <v>63.16670376641038</v>
       </c>
       <c r="H34" t="n">
         <v>54.75349731929555</v>
       </c>
       <c r="I34" t="n">
-        <v>57.92074208596316</v>
+        <v>57.92074208596318</v>
       </c>
       <c r="J34" t="n">
-        <v>57.92074208596316</v>
+        <v>57.92074208596318</v>
       </c>
       <c r="K34" t="n">
-        <v>212.0604280938381</v>
+        <v>61.67582067109755</v>
       </c>
       <c r="L34" t="n">
         <v>272.3920704574643</v>
       </c>
       <c r="M34" t="n">
-        <v>496.7770587267019</v>
+        <v>483.6103195729174</v>
       </c>
       <c r="N34" t="n">
-        <v>574.4524923375061</v>
+        <v>711.6703606064623</v>
       </c>
       <c r="O34" t="n">
-        <v>773.8176700448284</v>
+        <v>767.3999001647894</v>
       </c>
       <c r="P34" t="n">
-        <v>797.9832364835564</v>
+        <v>791.5654666035174</v>
       </c>
       <c r="Q34" t="n">
-        <v>797.9832364835564</v>
+        <v>791.5654666035174</v>
       </c>
       <c r="R34" t="n">
-        <v>782.5253836365955</v>
+        <v>776.1076137565565</v>
       </c>
       <c r="S34" t="n">
-        <v>713.6328794942139</v>
+        <v>707.2151096141749</v>
       </c>
       <c r="T34" t="n">
-        <v>637.7909951490884</v>
+        <v>631.3732252690495</v>
       </c>
       <c r="U34" t="n">
-        <v>502.0302379981691</v>
+        <v>495.6124681181302</v>
       </c>
       <c r="V34" t="n">
-        <v>400.7837738946601</v>
+        <v>394.3660040146212</v>
       </c>
       <c r="W34" t="n">
-        <v>264.8046279600774</v>
+        <v>258.3868580800386</v>
       </c>
       <c r="X34" t="n">
-        <v>190.2531011644379</v>
+        <v>183.8353312843991</v>
       </c>
       <c r="Y34" t="n">
-        <v>122.8985461232857</v>
+        <v>116.480776243247</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>976.4062224952081</v>
+        <v>976.4062224952094</v>
       </c>
       <c r="C35" t="n">
-        <v>830.5817726497132</v>
+        <v>830.5817726497144</v>
       </c>
       <c r="D35" t="n">
-        <v>695.4541411378796</v>
+        <v>695.4541411378807</v>
       </c>
       <c r="E35" t="n">
-        <v>532.803955634552</v>
+        <v>532.8039556345532</v>
       </c>
       <c r="F35" t="n">
-        <v>344.9561179398613</v>
+        <v>344.9561179398625</v>
       </c>
       <c r="G35" t="n">
-        <v>149.1016162094971</v>
+        <v>149.1016162094972</v>
       </c>
       <c r="H35" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="I35" t="n">
-        <v>63.9227460930836</v>
+        <v>63.92274609308364</v>
       </c>
       <c r="J35" t="n">
-        <v>94.11338600364489</v>
+        <v>94.11338600364493</v>
       </c>
       <c r="K35" t="n">
-        <v>260.1061333612151</v>
+        <v>260.1061333612153</v>
       </c>
       <c r="L35" t="n">
-        <v>518.3114420832765</v>
+        <v>518.3114420832766</v>
       </c>
       <c r="M35" t="n">
-        <v>822.2211443462786</v>
+        <v>822.2211443462787</v>
       </c>
       <c r="N35" t="n">
         <v>1116.416425773895</v>
@@ -6956,31 +6956,31 @@
         <v>1509.884159814265</v>
       </c>
       <c r="Q35" t="n">
-        <v>1600.981581014171</v>
+        <v>1725.458379060193</v>
       </c>
       <c r="R35" t="n">
-        <v>1702.408686756142</v>
+        <v>1725.458379060193</v>
       </c>
       <c r="S35" t="n">
-        <v>1725.458379060191</v>
+        <v>1725.458379060193</v>
       </c>
       <c r="T35" t="n">
-        <v>1725.458379060191</v>
+        <v>1725.458379060193</v>
       </c>
       <c r="U35" t="n">
-        <v>1694.752359935322</v>
+        <v>1694.752359935324</v>
       </c>
       <c r="V35" t="n">
-        <v>1586.827539686668</v>
+        <v>1586.82753968667</v>
       </c>
       <c r="W35" t="n">
-        <v>1457.196951511471</v>
+        <v>1457.196951511472</v>
       </c>
       <c r="X35" t="n">
-        <v>1306.869260345308</v>
+        <v>1306.869260345309</v>
       </c>
       <c r="Y35" t="n">
-        <v>1139.867995464413</v>
+        <v>1139.867995464414</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>115.5032121905045</v>
+        <v>766.3534403201792</v>
       </c>
       <c r="C36" t="n">
-        <v>115.5032121905045</v>
+        <v>591.9004110390522</v>
       </c>
       <c r="D36" t="n">
-        <v>115.5032121905045</v>
+        <v>442.966001377801</v>
       </c>
       <c r="E36" t="n">
-        <v>115.5032121905045</v>
+        <v>283.7285463723455</v>
       </c>
       <c r="F36" t="n">
-        <v>115.5032121905045</v>
+        <v>283.7285463723455</v>
       </c>
       <c r="G36" t="n">
-        <v>115.5032121905045</v>
+        <v>145.2679978051072</v>
       </c>
       <c r="H36" t="n">
-        <v>115.5032121905045</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="I36" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="J36" t="n">
-        <v>53.9869230633017</v>
+        <v>58.79712620234212</v>
       </c>
       <c r="K36" t="n">
-        <v>222.1197559907689</v>
+        <v>226.9299591298093</v>
       </c>
       <c r="L36" t="n">
-        <v>509.5994950288771</v>
+        <v>514.4096981679176</v>
       </c>
       <c r="M36" t="n">
-        <v>897.0540125833639</v>
+        <v>901.8642157224044</v>
       </c>
       <c r="N36" t="n">
-        <v>1310.470311698076</v>
+        <v>1315.280514837117</v>
       </c>
       <c r="O36" t="n">
-        <v>1622.249779707095</v>
+        <v>1627.059982846135</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.249779707095</v>
+        <v>1725.458379060193</v>
       </c>
       <c r="Q36" t="n">
-        <v>1725.458379060191</v>
+        <v>1725.458379060193</v>
       </c>
       <c r="R36" t="n">
-        <v>1641.069722817769</v>
+        <v>1641.06972281777</v>
       </c>
       <c r="S36" t="n">
-        <v>1472.672652217426</v>
+        <v>1641.06972281777</v>
       </c>
       <c r="T36" t="n">
-        <v>1271.575462950246</v>
+        <v>1439.97253355059</v>
       </c>
       <c r="U36" t="n">
-        <v>1188.719813141004</v>
+        <v>1434.904763753616</v>
       </c>
       <c r="V36" t="n">
-        <v>953.567704909261</v>
+        <v>1213.064528923951</v>
       </c>
       <c r="W36" t="n">
-        <v>699.3303481810593</v>
+        <v>1181.965239290666</v>
       </c>
       <c r="X36" t="n">
-        <v>491.4788479755265</v>
+        <v>974.1137390851331</v>
       </c>
       <c r="Y36" t="n">
-        <v>283.7185492105726</v>
+        <v>766.3534403201792</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.7913837586423</v>
+        <v>155.2872456172391</v>
       </c>
       <c r="C37" t="n">
-        <v>112.7913837586423</v>
+        <v>155.2872456172391</v>
       </c>
       <c r="D37" t="n">
-        <v>112.7913837586423</v>
+        <v>155.2872456172391</v>
       </c>
       <c r="E37" t="n">
-        <v>112.7913837586423</v>
+        <v>155.2872456172391</v>
       </c>
       <c r="F37" t="n">
-        <v>112.7913837586423</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="G37" t="n">
-        <v>112.7913837586423</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="H37" t="n">
-        <v>112.7913837586423</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="I37" t="n">
-        <v>112.7913837586423</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="J37" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="K37" t="n">
-        <v>38.26424616633818</v>
+        <v>38.26424616633822</v>
       </c>
       <c r="L37" t="n">
-        <v>98.59588852996437</v>
+        <v>98.59588852996441</v>
       </c>
       <c r="M37" t="n">
-        <v>172.5962693764614</v>
+        <v>172.5962693764615</v>
       </c>
       <c r="N37" t="n">
         <v>250.2717029872657</v>
       </c>
       <c r="O37" t="n">
-        <v>306.0012425455927</v>
+        <v>306.0012425455928</v>
       </c>
       <c r="P37" t="n">
-        <v>330.1668089843207</v>
+        <v>330.1668089843208</v>
       </c>
       <c r="Q37" t="n">
-        <v>330.1668089843207</v>
+        <v>330.1668089843208</v>
       </c>
       <c r="R37" t="n">
-        <v>330.1668089843207</v>
+        <v>330.1668089843208</v>
       </c>
       <c r="S37" t="n">
-        <v>330.1668089843207</v>
+        <v>330.1668089843208</v>
       </c>
       <c r="T37" t="n">
-        <v>324.0249676317341</v>
+        <v>324.0249676317342</v>
       </c>
       <c r="U37" t="n">
-        <v>257.9642534733536</v>
+        <v>257.9642534733537</v>
       </c>
       <c r="V37" t="n">
-        <v>226.4178323623834</v>
+        <v>226.4178323623835</v>
       </c>
       <c r="W37" t="n">
-        <v>117.6428675617429</v>
+        <v>160.1387294203397</v>
       </c>
       <c r="X37" t="n">
-        <v>112.7913837586423</v>
+        <v>155.2872456172391</v>
       </c>
       <c r="Y37" t="n">
-        <v>112.7913837586423</v>
+        <v>155.2872456172391</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>976.4062224952081</v>
+        <v>976.4062224952095</v>
       </c>
       <c r="C38" t="n">
-        <v>830.5817726497132</v>
+        <v>830.5817726497147</v>
       </c>
       <c r="D38" t="n">
-        <v>695.4541411378796</v>
+        <v>695.4541411378809</v>
       </c>
       <c r="E38" t="n">
-        <v>532.803955634552</v>
+        <v>532.8039556345535</v>
       </c>
       <c r="F38" t="n">
-        <v>344.9561179398613</v>
+        <v>344.9561179398627</v>
       </c>
       <c r="G38" t="n">
-        <v>149.1016162094971</v>
+        <v>149.1016162094972</v>
       </c>
       <c r="H38" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="I38" t="n">
-        <v>63.9227460930836</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="J38" t="n">
-        <v>94.11338600364489</v>
+        <v>243.0641840618488</v>
       </c>
       <c r="K38" t="n">
-        <v>307.6298256774465</v>
+        <v>409.0569314194191</v>
       </c>
       <c r="L38" t="n">
-        <v>565.8351343995079</v>
+        <v>667.2622401414804</v>
       </c>
       <c r="M38" t="n">
-        <v>869.74483666251</v>
+        <v>971.1719424044826</v>
       </c>
       <c r="N38" t="n">
-        <v>1163.940118090126</v>
+        <v>1265.367223832099</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.552742115572</v>
+        <v>1497.979847857544</v>
       </c>
       <c r="P38" t="n">
-        <v>1557.407852130497</v>
+        <v>1658.834957872469</v>
       </c>
       <c r="Q38" t="n">
-        <v>1600.981581014171</v>
+        <v>1702.408686756143</v>
       </c>
       <c r="R38" t="n">
-        <v>1702.408686756142</v>
+        <v>1702.408686756143</v>
       </c>
       <c r="S38" t="n">
-        <v>1725.458379060191</v>
+        <v>1725.458379060193</v>
       </c>
       <c r="T38" t="n">
-        <v>1725.458379060191</v>
+        <v>1725.458379060193</v>
       </c>
       <c r="U38" t="n">
-        <v>1694.752359935322</v>
+        <v>1694.752359935324</v>
       </c>
       <c r="V38" t="n">
-        <v>1586.827539686668</v>
+        <v>1586.82753968667</v>
       </c>
       <c r="W38" t="n">
-        <v>1457.196951511471</v>
+        <v>1457.196951511472</v>
       </c>
       <c r="X38" t="n">
-        <v>1306.869260345308</v>
+        <v>1306.869260345309</v>
       </c>
       <c r="Y38" t="n">
-        <v>1139.867995464413</v>
+        <v>1139.867995464414</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>430.2631043454604</v>
+        <v>737.7550000287183</v>
       </c>
       <c r="C39" t="n">
-        <v>430.2631043454604</v>
+        <v>563.3019707475913</v>
       </c>
       <c r="D39" t="n">
-        <v>430.2631043454604</v>
+        <v>414.3675610863401</v>
       </c>
       <c r="E39" t="n">
-        <v>430.2631043454604</v>
+        <v>364.7225909816461</v>
       </c>
       <c r="F39" t="n">
-        <v>283.7285463723454</v>
+        <v>364.7225909816461</v>
       </c>
       <c r="G39" t="n">
-        <v>145.2679978051071</v>
+        <v>226.2620424144079</v>
       </c>
       <c r="H39" t="n">
-        <v>34.50916758120383</v>
+        <v>115.5032121905046</v>
       </c>
       <c r="I39" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="J39" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="K39" t="n">
         <v>202.642000508671</v>
@@ -7269,34 +7269,34 @@
         <v>1602.772024224997</v>
       </c>
       <c r="P39" t="n">
-        <v>1725.458379060191</v>
+        <v>1622.249779707096</v>
       </c>
       <c r="Q39" t="n">
-        <v>1725.458379060191</v>
+        <v>1725.458379060193</v>
       </c>
       <c r="R39" t="n">
-        <v>1725.458379060191</v>
+        <v>1641.06972281777</v>
       </c>
       <c r="S39" t="n">
-        <v>1557.061308459848</v>
+        <v>1641.06972281777</v>
       </c>
       <c r="T39" t="n">
-        <v>1557.061308459848</v>
+        <v>1439.97253355059</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.479705295959</v>
+        <v>1211.7666966587</v>
       </c>
       <c r="V39" t="n">
-        <v>1268.327597064217</v>
+        <v>1199.752655521874</v>
       </c>
       <c r="W39" t="n">
-        <v>1014.090240336015</v>
+        <v>945.5152987936722</v>
       </c>
       <c r="X39" t="n">
-        <v>806.2387401304823</v>
+        <v>945.5152987936722</v>
       </c>
       <c r="Y39" t="n">
-        <v>598.4784413655284</v>
+        <v>737.7550000287183</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="C40" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="D40" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="E40" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="F40" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="G40" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="H40" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="I40" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="J40" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="K40" t="n">
-        <v>38.26424616633818</v>
+        <v>38.26424616633822</v>
       </c>
       <c r="L40" t="n">
-        <v>98.59588852996437</v>
+        <v>98.59588852996441</v>
       </c>
       <c r="M40" t="n">
-        <v>172.5962693764614</v>
+        <v>172.5962693764615</v>
       </c>
       <c r="N40" t="n">
         <v>250.2717029872657</v>
       </c>
       <c r="O40" t="n">
-        <v>306.0012425455927</v>
+        <v>306.0012425455928</v>
       </c>
       <c r="P40" t="n">
-        <v>330.1668089843207</v>
+        <v>330.1668089843208</v>
       </c>
       <c r="Q40" t="n">
-        <v>262.1083511135938</v>
+        <v>262.1083511135939</v>
       </c>
       <c r="R40" t="n">
-        <v>262.1083511135938</v>
+        <v>262.1083511135939</v>
       </c>
       <c r="S40" t="n">
-        <v>262.1083511135938</v>
+        <v>262.1083511135939</v>
       </c>
       <c r="T40" t="n">
-        <v>255.9665097610072</v>
+        <v>255.9665097610073</v>
       </c>
       <c r="U40" t="n">
-        <v>189.9057956026267</v>
+        <v>189.9057956026269</v>
       </c>
       <c r="V40" t="n">
         <v>105.6397543263483</v>
       </c>
       <c r="W40" t="n">
-        <v>39.3606513843044</v>
+        <v>39.36065138430443</v>
       </c>
       <c r="X40" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120385</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1091.127662321285</v>
+        <v>1091.127662321284</v>
       </c>
       <c r="C41" t="n">
-        <v>926.9926243602273</v>
+        <v>926.9926243602262</v>
       </c>
       <c r="D41" t="n">
-        <v>773.5544047328309</v>
+        <v>773.5544047328298</v>
       </c>
       <c r="E41" t="n">
-        <v>592.5936311139408</v>
+        <v>592.5936311139396</v>
       </c>
       <c r="F41" t="n">
-        <v>386.4352053036873</v>
+        <v>386.4352053036862</v>
       </c>
       <c r="G41" t="n">
         <v>172.2701154577601</v>
       </c>
       <c r="H41" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="I41" t="n">
-        <v>50.83444981372094</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="J41" t="n">
-        <v>81.02508972428222</v>
+        <v>270.3091307721303</v>
       </c>
       <c r="K41" t="n">
-        <v>385.6663849889229</v>
+        <v>436.3018781297006</v>
       </c>
       <c r="L41" t="n">
-        <v>643.8716937109842</v>
+        <v>844.6231058586482</v>
       </c>
       <c r="M41" t="n">
-        <v>947.7813959739864</v>
+        <v>1148.53280812165</v>
       </c>
       <c r="N41" t="n">
-        <v>1241.976677401603</v>
+        <v>1442.728089549267</v>
       </c>
       <c r="O41" t="n">
-        <v>1474.589301427048</v>
+        <v>1675.340713574712</v>
       </c>
       <c r="P41" t="n">
-        <v>1635.444411441973</v>
+        <v>1836.195823589637</v>
       </c>
       <c r="Q41" t="n">
-        <v>1879.769552473312</v>
+        <v>1879.769552473311</v>
       </c>
       <c r="R41" t="n">
         <v>1963.25045080322</v>
       </c>
       <c r="S41" t="n">
-        <v>1968.353935695207</v>
+        <v>1968.353935695206</v>
       </c>
       <c r="T41" t="n">
-        <v>1950.043347579644</v>
+        <v>1950.043347579643</v>
       </c>
       <c r="U41" t="n">
         <v>1901.026740339212</v>
       </c>
       <c r="V41" t="n">
-        <v>1774.791331974996</v>
+        <v>1774.791331974995</v>
       </c>
       <c r="W41" t="n">
-        <v>1626.850155684236</v>
+        <v>1626.850155684235</v>
       </c>
       <c r="X41" t="n">
-        <v>1458.21187640251</v>
+        <v>1458.211876402509</v>
       </c>
       <c r="Y41" t="n">
         <v>1272.900023406052</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>362.7545176562824</v>
+        <v>754.488468342636</v>
       </c>
       <c r="C42" t="n">
-        <v>188.3014883751554</v>
+        <v>754.488468342636</v>
       </c>
       <c r="D42" t="n">
-        <v>39.36707871390414</v>
+        <v>605.5540586813847</v>
       </c>
       <c r="E42" t="n">
-        <v>39.36707871390414</v>
+        <v>446.3166036759292</v>
       </c>
       <c r="F42" t="n">
-        <v>39.36707871390414</v>
+        <v>299.7820457028142</v>
       </c>
       <c r="G42" t="n">
-        <v>39.36707871390414</v>
+        <v>161.321497135576</v>
       </c>
       <c r="H42" t="n">
-        <v>39.36707871390414</v>
+        <v>50.56266691167264</v>
       </c>
       <c r="I42" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="J42" t="n">
         <v>63.65503733504238</v>
       </c>
       <c r="K42" t="n">
-        <v>231.7878702625095</v>
+        <v>231.7878702625096</v>
       </c>
       <c r="L42" t="n">
         <v>519.2676093006178</v>
       </c>
       <c r="M42" t="n">
-        <v>906.7221268551046</v>
+        <v>906.7221268551045</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.138425969817</v>
+        <v>1320.138425969816</v>
       </c>
       <c r="O42" t="n">
-        <v>1631.917893978836</v>
+        <v>1631.917893978835</v>
       </c>
       <c r="P42" t="n">
-        <v>1865.14533634211</v>
+        <v>1865.145336342109</v>
       </c>
       <c r="Q42" t="n">
-        <v>1968.353935695207</v>
+        <v>1968.353935695206</v>
       </c>
       <c r="R42" t="n">
         <v>1883.965279452784</v>
       </c>
       <c r="S42" t="n">
-        <v>1865.274144765852</v>
+        <v>1883.965279452784</v>
       </c>
       <c r="T42" t="n">
-        <v>1664.176955498672</v>
+        <v>1682.868090185604</v>
       </c>
       <c r="U42" t="n">
-        <v>1435.971118606781</v>
+        <v>1454.662253293713</v>
       </c>
       <c r="V42" t="n">
-        <v>1200.819010375039</v>
+        <v>1219.51014506197</v>
       </c>
       <c r="W42" t="n">
-        <v>946.5816536468371</v>
+        <v>965.2727883337686</v>
       </c>
       <c r="X42" t="n">
-        <v>738.7301534413043</v>
+        <v>962.24876710759</v>
       </c>
       <c r="Y42" t="n">
-        <v>530.9698546763505</v>
+        <v>754.488468342636</v>
       </c>
     </row>
     <row r="43">
@@ -7543,61 +7543,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="C43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="D43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="E43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="F43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="G43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="H43" t="n">
-        <v>43.61009068526373</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="I43" t="n">
-        <v>43.61009068526373</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="J43" t="n">
-        <v>43.61009068526373</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="K43" t="n">
-        <v>47.36516927039808</v>
+        <v>43.12215729903848</v>
       </c>
       <c r="L43" t="n">
-        <v>107.6968116340243</v>
+        <v>103.4537996626647</v>
       </c>
       <c r="M43" t="n">
-        <v>181.6971924805213</v>
+        <v>177.4541805091617</v>
       </c>
       <c r="N43" t="n">
-        <v>259.3726260913256</v>
+        <v>255.129614119966</v>
       </c>
       <c r="O43" t="n">
-        <v>315.1021656496526</v>
+        <v>310.8591536782931</v>
       </c>
       <c r="P43" t="n">
-        <v>339.2677320883806</v>
+        <v>339.2677320883805</v>
       </c>
       <c r="Q43" t="n">
-        <v>339.2677320883806</v>
+        <v>339.2677320883805</v>
       </c>
       <c r="R43" t="n">
-        <v>339.2677320883806</v>
+        <v>339.2677320883805</v>
       </c>
       <c r="S43" t="n">
         <v>321.7646828229751</v>
       </c>
       <c r="T43" t="n">
-        <v>297.3122533548259</v>
+        <v>297.3122533548258</v>
       </c>
       <c r="U43" t="n">
         <v>212.9409510808827</v>
@@ -7606,13 +7606,13 @@
         <v>163.0839418543499</v>
       </c>
       <c r="W43" t="n">
-        <v>78.49425079674339</v>
+        <v>78.49425079674336</v>
       </c>
       <c r="X43" t="n">
-        <v>55.33217887808014</v>
+        <v>55.33217887808012</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1091.127662321283</v>
+        <v>1091.127662321285</v>
       </c>
       <c r="C44" t="n">
-        <v>926.9926243602258</v>
+        <v>926.9926243602272</v>
       </c>
       <c r="D44" t="n">
-        <v>773.5544047328297</v>
+        <v>773.5544047328308</v>
       </c>
       <c r="E44" t="n">
-        <v>592.5936311139396</v>
+        <v>592.5936311139407</v>
       </c>
       <c r="F44" t="n">
-        <v>386.4352053036862</v>
+        <v>386.4352053036872</v>
       </c>
       <c r="G44" t="n">
         <v>172.2701154577601</v>
       </c>
       <c r="H44" t="n">
-        <v>39.36707871390411</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="I44" t="n">
-        <v>50.83444981372092</v>
+        <v>50.83444981372095</v>
       </c>
       <c r="J44" t="n">
-        <v>81.02508972428221</v>
+        <v>281.7765018719472</v>
       </c>
       <c r="K44" t="n">
-        <v>447.7692492295175</v>
+        <v>648.5206613771825</v>
       </c>
       <c r="L44" t="n">
-        <v>844.6231058586482</v>
+        <v>906.7259700992438</v>
       </c>
       <c r="M44" t="n">
-        <v>1148.53280812165</v>
+        <v>1210.635672362246</v>
       </c>
       <c r="N44" t="n">
-        <v>1442.728089549267</v>
+        <v>1504.830953789862</v>
       </c>
       <c r="O44" t="n">
-        <v>1675.340713574712</v>
+        <v>1737.443577815308</v>
       </c>
       <c r="P44" t="n">
-        <v>1836.195823589637</v>
+        <v>1898.298687830233</v>
       </c>
       <c r="Q44" t="n">
-        <v>1879.769552473311</v>
+        <v>1941.872416713907</v>
       </c>
       <c r="R44" t="n">
         <v>1963.25045080322</v>
       </c>
       <c r="S44" t="n">
-        <v>1968.353935695206</v>
+        <v>1968.353935695207</v>
       </c>
       <c r="T44" t="n">
-        <v>1950.043347579643</v>
+        <v>1950.043347579644</v>
       </c>
       <c r="U44" t="n">
-        <v>1901.026740339211</v>
+        <v>1901.026740339212</v>
       </c>
       <c r="V44" t="n">
-        <v>1774.791331974994</v>
+        <v>1774.791331974996</v>
       </c>
       <c r="W44" t="n">
-        <v>1626.850155684234</v>
+        <v>1626.850155684236</v>
       </c>
       <c r="X44" t="n">
-        <v>1458.211876402509</v>
+        <v>1458.21187640251</v>
       </c>
       <c r="Y44" t="n">
-        <v>1272.900023406051</v>
+        <v>1272.900023406052</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>668.5265306348529</v>
+        <v>632.7508028856412</v>
       </c>
       <c r="C45" t="n">
-        <v>494.0735013537259</v>
+        <v>458.2977736045142</v>
       </c>
       <c r="D45" t="n">
-        <v>345.1390916924746</v>
+        <v>309.3633639432629</v>
       </c>
       <c r="E45" t="n">
-        <v>185.9016366870191</v>
+        <v>150.1259089378075</v>
       </c>
       <c r="F45" t="n">
-        <v>39.36707871390411</v>
+        <v>150.1259089378075</v>
       </c>
       <c r="G45" t="n">
-        <v>39.36707871390411</v>
+        <v>150.1259089378075</v>
       </c>
       <c r="H45" t="n">
-        <v>39.36707871390411</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="I45" t="n">
-        <v>39.36707871390411</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="J45" t="n">
-        <v>63.65503733504238</v>
+        <v>63.65503733504261</v>
       </c>
       <c r="K45" t="n">
-        <v>231.7878702625095</v>
+        <v>231.7878702625096</v>
       </c>
       <c r="L45" t="n">
-        <v>519.2676093006178</v>
+        <v>519.267609300618</v>
       </c>
       <c r="M45" t="n">
-        <v>906.7221268551045</v>
+        <v>906.7221268551049</v>
       </c>
       <c r="N45" t="n">
         <v>1320.138425969817</v>
       </c>
       <c r="O45" t="n">
-        <v>1631.917893978835</v>
+        <v>1631.917893978836</v>
       </c>
       <c r="P45" t="n">
         <v>1865.14533634211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1968.353935695206</v>
+        <v>1968.353935695207</v>
       </c>
       <c r="R45" t="n">
         <v>1883.965279452784</v>
       </c>
       <c r="S45" t="n">
-        <v>1715.56820885244</v>
+        <v>1715.568208852441</v>
       </c>
       <c r="T45" t="n">
-        <v>1514.47101958526</v>
+        <v>1514.471019585261</v>
       </c>
       <c r="U45" t="n">
         <v>1286.26518269337</v>
       </c>
       <c r="V45" t="n">
-        <v>1255.940553440981</v>
+        <v>1255.940553440982</v>
       </c>
       <c r="W45" t="n">
-        <v>1047.526187646054</v>
+        <v>1206.530675692134</v>
       </c>
       <c r="X45" t="n">
-        <v>1044.502166419875</v>
+        <v>998.6791754866015</v>
       </c>
       <c r="Y45" t="n">
-        <v>836.741867654921</v>
+        <v>800.9661399057093</v>
       </c>
     </row>
     <row r="46">
@@ -7780,61 +7780,61 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.36707871390411</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="C46" t="n">
-        <v>39.36707871390411</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="D46" t="n">
-        <v>39.36707871390411</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="E46" t="n">
-        <v>43.61009068526367</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="F46" t="n">
-        <v>43.61009068526367</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="G46" t="n">
-        <v>43.61009068526367</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="H46" t="n">
-        <v>43.61009068526367</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="I46" t="n">
-        <v>43.61009068526367</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="J46" t="n">
-        <v>43.61009068526367</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="K46" t="n">
-        <v>47.36516927039803</v>
+        <v>43.1221572990385</v>
       </c>
       <c r="L46" t="n">
-        <v>107.6968116340242</v>
+        <v>103.4537996626647</v>
       </c>
       <c r="M46" t="n">
-        <v>181.6971924805213</v>
+        <v>177.4541805091617</v>
       </c>
       <c r="N46" t="n">
-        <v>259.3726260913255</v>
+        <v>255.129614119966</v>
       </c>
       <c r="O46" t="n">
-        <v>315.1021656496526</v>
+        <v>310.8591536782931</v>
       </c>
       <c r="P46" t="n">
-        <v>339.2677320883805</v>
+        <v>335.024720117021</v>
       </c>
       <c r="Q46" t="n">
-        <v>339.2677320883805</v>
+        <v>339.2677320883806</v>
       </c>
       <c r="R46" t="n">
-        <v>339.2677320883805</v>
+        <v>339.2677320883806</v>
       </c>
       <c r="S46" t="n">
         <v>321.7646828229751</v>
       </c>
       <c r="T46" t="n">
-        <v>297.3122533548258</v>
+        <v>297.3122533548259</v>
       </c>
       <c r="U46" t="n">
         <v>212.9409510808827</v>
@@ -7843,13 +7843,13 @@
         <v>163.0839418543499</v>
       </c>
       <c r="W46" t="n">
-        <v>78.49425079674336</v>
+        <v>78.49425079674339</v>
       </c>
       <c r="X46" t="n">
-        <v>55.33217887808012</v>
+        <v>55.33217887808014</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.36707871390411</v>
+        <v>39.36707871390414</v>
       </c>
     </row>
   </sheetData>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M8" t="n">
-        <v>236.944458939016</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2891093383024</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P8" t="n">
         <v>238.109041496981</v>
@@ -8538,13 +8538,13 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>138.2177578250447</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
         <v>145.8018296893165</v>
@@ -8623,7 +8623,7 @@
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.5577438039055</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,7 +8778,7 @@
         <v>454.3203189461499</v>
       </c>
       <c r="N12" t="n">
-        <v>71.36979010163753</v>
+        <v>61.75015301556145</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>195.1636332854218</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.5577438039055</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>454.3203189461499</v>
+        <v>74.33686420001324</v>
       </c>
       <c r="N15" t="n">
-        <v>386.2985456663029</v>
+        <v>426.8199533112709</v>
       </c>
       <c r="O15" t="n">
-        <v>78.93356371206414</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599045</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>94.63409264139963</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>74.33686420001324</v>
+        <v>454.3203189461499</v>
       </c>
       <c r="N18" t="n">
-        <v>426.8199533112706</v>
+        <v>441.7336077616981</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>93.39680381455234</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599045</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>355.926690853032</v>
       </c>
       <c r="M21" t="n">
-        <v>454.3203189461499</v>
+        <v>74.33686420001324</v>
       </c>
       <c r="N21" t="n">
         <v>441.7336077616981</v>
       </c>
       <c r="O21" t="n">
-        <v>78.93356371206414</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>238.4944150080387</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>94.63409264139963</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.3203189461499</v>
+        <v>229.254354120765</v>
       </c>
       <c r="N24" t="n">
-        <v>361.7652541297996</v>
+        <v>441.7336077616981</v>
       </c>
       <c r="O24" t="n">
-        <v>78.93356371206414</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>121.2322442908731</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>82.87949352551844</v>
+        <v>182.2718129336569</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>105.826177278176</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>206.805104470159</v>
+        <v>102.5539940124873</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.826177278176</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>479.342374343553</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358486</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.3538804794597</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.8929305869867</v>
+        <v>154.7376633591506</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>250.5504088882409</v>
       </c>
       <c r="F11" t="n">
-        <v>275.4960845576906</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.4226819530071</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>21.80215240000003</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.52672523994673</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>217.8610075333921</v>
+        <v>217.8610075333922</v>
       </c>
       <c r="X11" t="n">
-        <v>238.3511394944481</v>
+        <v>238.3511394944482</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.8579774720327</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>154.9057331792765</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>250.5504088882409</v>
       </c>
       <c r="F14" t="n">
-        <v>62.43134172288453</v>
+        <v>275.4960845576906</v>
       </c>
       <c r="G14" t="n">
-        <v>283.4226819530071</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>202.9732493819571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.24420776110922</v>
+        <v>66.24420776110925</v>
       </c>
       <c r="T14" t="n">
-        <v>89.5267252399467</v>
+        <v>89.52672523994673</v>
       </c>
       <c r="U14" t="n">
-        <v>119.925684173567</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>196.372297286114</v>
       </c>
       <c r="W14" t="n">
-        <v>217.8610075333921</v>
+        <v>217.8610075333922</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.3511394944482</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.15347789284715e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26326,34 +26326,34 @@
         <v>245872.5096067246</v>
       </c>
       <c r="G2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="H2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="I2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="J2" t="n">
-        <v>287364.6194524985</v>
+        <v>287364.6194524984</v>
       </c>
       <c r="K2" t="n">
+        <v>287364.6194524984</v>
+      </c>
+      <c r="L2" t="n">
         <v>287364.6194524986</v>
-      </c>
-      <c r="L2" t="n">
-        <v>287364.6194524989</v>
       </c>
       <c r="M2" t="n">
         <v>287364.6194524991</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524991</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524991</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>316447.742171964</v>
+        <v>316447.7421719639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84914.70873765006</v>
+        <v>84914.70873765013</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86337.88518108652</v>
+        <v>86337.8851810866</v>
       </c>
       <c r="M3" t="n">
-        <v>85120.19345298692</v>
+        <v>85120.19345298701</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35296.30877041442</v>
+        <v>35296.30877041422</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,10 +26433,10 @@
         <v>361024.1181204227</v>
       </c>
       <c r="H4" t="n">
-        <v>361024.1181204226</v>
+        <v>361024.1181204227</v>
       </c>
       <c r="I4" t="n">
-        <v>361024.1181204226</v>
+        <v>361024.1181204227</v>
       </c>
       <c r="J4" t="n">
         <v>358989.4917677018</v>
@@ -26445,7 +26445,7 @@
         <v>358989.4917677018</v>
       </c>
       <c r="L4" t="n">
-        <v>358954.9034898141</v>
+        <v>358954.9034898142</v>
       </c>
       <c r="M4" t="n">
         <v>359654.5399480487</v>
@@ -26476,40 +26476,40 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>36859.86279422477</v>
+        <v>36859.86279422476</v>
       </c>
       <c r="F5" t="n">
-        <v>36859.86279422477</v>
+        <v>36859.86279422476</v>
       </c>
       <c r="G5" t="n">
-        <v>45783.23110530664</v>
+        <v>45783.23110530665</v>
       </c>
       <c r="H5" t="n">
-        <v>45783.23110530664</v>
+        <v>45783.23110530665</v>
       </c>
       <c r="I5" t="n">
-        <v>45783.23110530664</v>
+        <v>45783.23110530665</v>
       </c>
       <c r="J5" t="n">
+        <v>57363.43949289199</v>
+      </c>
+      <c r="K5" t="n">
         <v>57363.43949289198</v>
-      </c>
-      <c r="K5" t="n">
-        <v>57363.43949289199</v>
       </c>
       <c r="L5" t="n">
         <v>57094.932187325</v>
       </c>
       <c r="M5" t="n">
-        <v>47510.25837157165</v>
+        <v>47510.25837157166</v>
       </c>
       <c r="N5" t="n">
-        <v>47510.25837157165</v>
+        <v>47510.25837157166</v>
       </c>
       <c r="O5" t="n">
+        <v>49678.3115284595</v>
+      </c>
+      <c r="P5" t="n">
         <v>49678.31152845951</v>
-      </c>
-      <c r="P5" t="n">
-        <v>49678.3115284595</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172404.0206151401</v>
+        <v>-172408.4341930082</v>
       </c>
       <c r="C6" t="n">
-        <v>-172404.0206151402</v>
+        <v>-172408.4341930082</v>
       </c>
       <c r="D6" t="n">
-        <v>-174472.5851196867</v>
+        <v>-174474.2620313496</v>
       </c>
       <c r="E6" t="n">
-        <v>-401032.5168405308</v>
+        <v>-401328.8890537146</v>
       </c>
       <c r="F6" t="n">
-        <v>-84584.77466856672</v>
+        <v>-84881.1468817509</v>
       </c>
       <c r="G6" t="n">
-        <v>-204357.4385108804</v>
+        <v>-204357.4385108802</v>
       </c>
       <c r="H6" t="n">
-        <v>-119442.7297732299</v>
+        <v>-119442.7297732302</v>
       </c>
       <c r="I6" t="n">
-        <v>-119442.7297732303</v>
+        <v>-119442.7297732302</v>
       </c>
       <c r="J6" t="n">
-        <v>-245626.0774521602</v>
+        <v>-245626.0774521603</v>
       </c>
       <c r="K6" t="n">
-        <v>-128988.3118080951</v>
+        <v>-128988.3118080953</v>
       </c>
       <c r="L6" t="n">
-        <v>-215023.1014057267</v>
+        <v>-215023.1014057272</v>
       </c>
       <c r="M6" t="n">
-        <v>-204920.3723201081</v>
+        <v>-204920.3723201082</v>
       </c>
       <c r="N6" t="n">
-        <v>-119800.1788671212</v>
+        <v>-119800.1788671211</v>
       </c>
       <c r="O6" t="n">
-        <v>-155647.2517315972</v>
+        <v>-155647.2517315971</v>
       </c>
       <c r="P6" t="n">
-        <v>-120350.942961183</v>
+        <v>-120350.9429611829</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>237.5233471060835</v>
       </c>
       <c r="H2" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="I2" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="J2" t="n">
         <v>150.1246733070585</v>
@@ -26802,7 +26802,7 @@
         <v>379.9834547461367</v>
       </c>
       <c r="G4" t="n">
-        <v>379.9834547461366</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="H4" t="n">
         <v>379.9834547461367</v>
@@ -26811,25 +26811,25 @@
         <v>379.9834547461367</v>
       </c>
       <c r="J4" t="n">
+        <v>691.2947622329059</v>
+      </c>
+      <c r="K4" t="n">
         <v>691.2947622329058</v>
       </c>
-      <c r="K4" t="n">
-        <v>691.2947622329059</v>
-      </c>
       <c r="L4" t="n">
-        <v>684.4187164911945</v>
+        <v>684.4187164911943</v>
       </c>
       <c r="M4" t="n">
-        <v>431.3645947650478</v>
+        <v>431.3645947650481</v>
       </c>
       <c r="N4" t="n">
-        <v>431.3645947650478</v>
+        <v>431.3645947650481</v>
       </c>
       <c r="O4" t="n">
+        <v>492.0884839238014</v>
+      </c>
+      <c r="P4" t="n">
         <v>492.0884839238017</v>
-      </c>
-      <c r="P4" t="n">
-        <v>492.0884839238014</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106.1433859220626</v>
+        <v>106.1433859220627</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.98128738499597</v>
+        <v>43.98128738499588</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>107.9223564763581</v>
+        <v>107.9223564763583</v>
       </c>
       <c r="M2" t="n">
-        <v>69.00304256261347</v>
+        <v>69.00304256261344</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.85380515058893</v>
+        <v>25.85380515058884</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.3113074867691</v>
+        <v>311.3113074867692</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120.0532872782786</v>
+        <v>120.053287278279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>60.72388915875388</v>
+        <v>60.72388915875331</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.1433859220626</v>
+        <v>106.1433859220627</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.98128738499597</v>
+        <v>43.98128738499588</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.892868265313084</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.114653472833368</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27947,10 +27947,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>105.359398494785</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>82.52058710970364</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>164.8071253621264</v>
       </c>
       <c r="T9" t="n">
-        <v>193.2886829531102</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>220.6315523179333</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>172.9559344402259</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>164.6559990042658</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>86.48313437496134</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>15.39344608417142</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,16 +28050,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>171.2369702878701</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>217.1405522952608</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28068,10 +28068,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28114,7 +28114,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28178,16 +28178,16 @@
         <v>131.3799611840209</v>
       </c>
       <c r="F12" t="n">
-        <v>131.3799611840209</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>131.3799611840209</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,16 +28214,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S12" t="n">
         <v>131.3799611840209</v>
       </c>
       <c r="T12" t="n">
-        <v>52.20072440835062</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>129.5030536708298</v>
       </c>
       <c r="V12" t="n">
         <v>131.3799611840209</v>
@@ -28232,7 +28232,7 @@
         <v>131.3799611840209</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28269,13 +28269,13 @@
         <v>131.3799611840209</v>
       </c>
       <c r="J13" t="n">
-        <v>124.9227880175225</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="L13" t="n">
-        <v>131.3799611840209</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>131.3799611840209</v>
@@ -28290,7 +28290,7 @@
         <v>131.3799611840209</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.3799611840209</v>
+        <v>124.9227880175233</v>
       </c>
       <c r="R13" t="n">
         <v>131.3799611840209</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="C15" t="n">
         <v>131.3799611840209</v>
@@ -28415,7 +28415,7 @@
         <v>131.3799611840209</v>
       </c>
       <c r="F15" t="n">
-        <v>131.3799611840209</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>131.3799611840209</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.54476967999808</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>131.3799611840209</v>
@@ -28463,16 +28463,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>131.3799611840209</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>103.396581429164</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.85181174916551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28506,16 +28506,16 @@
         <v>131.3799611840209</v>
       </c>
       <c r="J16" t="n">
-        <v>124.9227880175225</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="K16" t="n">
         <v>131.3799611840209</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="M16" t="n">
-        <v>131.3799611840209</v>
+        <v>57.54491472550379</v>
       </c>
       <c r="N16" t="n">
         <v>131.3799611840209</v>
@@ -28527,7 +28527,7 @@
         <v>131.3799611840209</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.3799611840209</v>
+        <v>67.37787329201959</v>
       </c>
       <c r="R16" t="n">
         <v>131.3799611840209</v>
@@ -28649,10 +28649,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.95784518279406</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>47.45524384244516</v>
       </c>
       <c r="W18" t="n">
         <v>237.5233471060835</v>
@@ -28709,7 +28709,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28770,7 +28770,7 @@
         <v>167.2069181798455</v>
       </c>
       <c r="S19" t="n">
-        <v>39.80355175615904</v>
+        <v>220.1072229623119</v>
       </c>
       <c r="T19" t="n">
         <v>226.9871093630283</v>
@@ -28785,7 +28785,7 @@
         <v>237.5233471060835</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>45.40598418288408</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="C20" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="D20" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="E20" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="F20" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="G20" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="H20" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="I20" t="n">
         <v>191.1960010584324</v>
@@ -28855,19 +28855,19 @@
         <v>220.9066864239676</v>
       </c>
       <c r="U20" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="V20" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="W20" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="X20" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6512419216643</v>
+        <v>22.71995011977771</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28928,16 +28928,16 @@
         <v>83.54476967999808</v>
       </c>
       <c r="S21" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>104.6245298833952</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28965,7 +28965,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -29013,13 +29013,13 @@
         <v>226.9871093630283</v>
       </c>
       <c r="U22" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="V22" t="n">
-        <v>237.5233471060834</v>
+        <v>203.6536385464996</v>
       </c>
       <c r="W22" t="n">
-        <v>57.21967589993068</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="C23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="D23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="E23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="F23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="G23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="H23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="I23" t="n">
         <v>191.1960010584324</v>
@@ -29092,19 +29092,19 @@
         <v>220.9066864239676</v>
       </c>
       <c r="U23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="V23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="W23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="X23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
     </row>
     <row r="24">
@@ -29126,16 +29126,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0759430815659</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>58.09601817770865</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.54476967999808</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>199.0862173745079</v>
@@ -29174,13 +29174,13 @@
         <v>225.9237785229719</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.029053160461</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>145.9622716223534</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29202,7 +29202,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29217,7 +29217,7 @@
         <v>148.704406723306</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>77.49939401566409</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,25 +29238,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.37787329201959</v>
       </c>
       <c r="R25" t="n">
         <v>167.2069181798455</v>
       </c>
       <c r="S25" t="n">
-        <v>184.6808190638428</v>
+        <v>220.1072229623119</v>
       </c>
       <c r="T25" t="n">
         <v>226.9871093630283</v>
       </c>
       <c r="U25" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="V25" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5233471060834</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29351,70 +29351,70 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>147.4450655646388</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>99.83126892047777</v>
+      </c>
+      <c r="I27" t="n">
+        <v>80.18410416320771</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>150.1246733070585</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="U27" t="n">
         <v>150.1246733070585</v>
       </c>
-      <c r="F27" t="n">
-        <v>145.0692123933839</v>
-      </c>
-      <c r="G27" t="n">
-        <v>137.0759430815659</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>83.54476967999808</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>111.895186800435</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="G28" t="n">
         <v>150.1246733070585</v>
@@ -29451,19 +29451,19 @@
         <v>150.1246733070585</v>
       </c>
       <c r="I28" t="n">
-        <v>148.704406723306</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="J28" t="n">
-        <v>150.1246733070585</v>
+        <v>77.49939401566409</v>
       </c>
       <c r="K28" t="n">
-        <v>99.49029219670423</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>83.24487960517948</v>
       </c>
       <c r="N28" t="n">
         <v>150.1246733070585</v>
@@ -29472,10 +29472,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.37787329201959</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="R28" t="n">
         <v>150.1246733070585</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>102.2071220917327</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29600,16 +29600,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>106.8397258867603</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.54476967999808</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>150.1246733070585</v>
       </c>
-      <c r="T30" t="n">
+      <c r="X30" t="n">
         <v>150.1246733070585</v>
       </c>
-      <c r="U30" t="n">
+      <c r="Y30" t="n">
         <v>150.1246733070585</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29676,10 +29676,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="G31" t="n">
         <v>150.1246733070585</v>
@@ -29688,25 +29688,25 @@
         <v>150.1246733070585</v>
       </c>
       <c r="I31" t="n">
-        <v>150.1246733070585</v>
+        <v>148.704406723306</v>
       </c>
       <c r="J31" t="n">
         <v>150.1246733070585</v>
       </c>
       <c r="K31" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>150.1246733070585</v>
       </c>
       <c r="M31" t="n">
-        <v>99.5792259017975</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>92.60515654093319</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29779,10 +29779,10 @@
         <v>151.9036438613541</v>
       </c>
       <c r="M32" t="n">
-        <v>108.6665459358165</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="N32" t="n">
-        <v>151.9036438613541</v>
+        <v>108.6665459358157</v>
       </c>
       <c r="O32" t="n">
         <v>151.9036438613541</v>
@@ -29843,10 +29843,10 @@
         <v>137.0759430815659</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,10 +29873,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.54476967999808</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>63.57111200035546</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>151.9036438613541</v>
@@ -29888,13 +29888,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>33.1439400425175</v>
       </c>
     </row>
     <row r="34">
@@ -29916,7 +29916,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="G34" t="n">
         <v>151.9036438613541</v>
@@ -29931,19 +29931,19 @@
         <v>77.49939401566409</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>151.9036438613541</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
+        <v>138.6039073423798</v>
+      </c>
+      <c r="N34" t="n">
         <v>151.9036438613541</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
-        <v>145.0865031808033</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30028,13 +30028,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.0037296123549</v>
+        <v>173.7378690527809</v>
       </c>
       <c r="R35" t="n">
-        <v>220.9066864239676</v>
+        <v>118.4550644623804</v>
       </c>
       <c r="S35" t="n">
-        <v>220.9066864239676</v>
+        <v>197.6241689451301</v>
       </c>
       <c r="T35" t="n">
         <v>220.9066864239676</v>
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,19 +30113,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>143.8966852118222</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>13.17875466805631</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>25.85075076725636</v>
       </c>
       <c r="G37" t="n">
         <v>167.7666542368038</v>
@@ -30165,7 +30165,7 @@
         <v>148.704406723306</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>77.49939401566409</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="W37" t="n">
-        <v>178.8357831839569</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="X37" t="n">
         <v>220.9066864239676</v>
@@ -30241,13 +30241,13 @@
         <v>220.9066864239676</v>
       </c>
       <c r="I38" t="n">
-        <v>220.9066864239676</v>
+        <v>191.1960010584324</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>180.1660369394785</v>
       </c>
       <c r="K38" t="n">
-        <v>48.00372961235493</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>220.9066864239676</v>
+        <v>118.4550644623804</v>
       </c>
       <c r="S38" t="n">
         <v>220.9066864239676</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>108.496560051754</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,25 +30347,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.54476967999808</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0862173745079</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>172.8779913907222</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30438,7 +30438,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="V40" t="n">
-        <v>168.7142624603123</v>
+        <v>168.7142624603122</v>
       </c>
       <c r="W40" t="n">
         <v>220.9066864239676</v>
@@ -30478,16 +30478,16 @@
         <v>202.7792041895605</v>
       </c>
       <c r="I41" t="n">
+        <v>191.1960010584324</v>
+      </c>
+      <c r="J41" t="n">
         <v>202.7792041895605</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
       <c r="K41" t="n">
-        <v>140.0490382899702</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>151.6322414210971</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.7792041895605</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>202.7792041895605</v>
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.18410416320771</v>
+        <v>69.10047184741687</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>148.2088765542767</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30633,7 +30633,7 @@
         <v>167.7666542368038</v>
       </c>
       <c r="H43" t="n">
-        <v>164.5185889221388</v>
+        <v>160.2327182439978</v>
       </c>
       <c r="I43" t="n">
         <v>148.704406723306</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>4.285870678140927</v>
       </c>
       <c r="Q43" t="n">
         <v>67.37787329201959</v>
@@ -30718,13 +30718,13 @@
         <v>202.7792041895605</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="K44" t="n">
         <v>202.7792041895605</v>
       </c>
       <c r="L44" t="n">
-        <v>140.0490382899691</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>202.7792041895605</v>
+        <v>140.0490382899699</v>
       </c>
       <c r="S44" t="n">
         <v>202.7792041895605</v>
@@ -30785,13 +30785,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.0759430815659</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>80.18410416320771</v>
@@ -30836,13 +30836,13 @@
         <v>202.7792041895605</v>
       </c>
       <c r="W45" t="n">
-        <v>45.36476102394155</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="X45" t="n">
-        <v>202.7792041895605</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>9.946790552221074</v>
       </c>
     </row>
     <row r="46">
@@ -30861,7 +30861,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>150.7198333247102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.37787329201959</v>
+        <v>71.66374397016058</v>
       </c>
       <c r="R46" t="n">
         <v>167.2069181798455</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5000943781070861</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H11" t="n">
-        <v>5.121591549789197</v>
+        <v>5.121591549789198</v>
       </c>
       <c r="I11" t="n">
         <v>19.27988851197346</v>
@@ -31762,22 +31762,22 @@
         <v>42.44488522386634</v>
       </c>
       <c r="K11" t="n">
-        <v>63.61388024913931</v>
+        <v>63.61388024913932</v>
       </c>
       <c r="L11" t="n">
-        <v>78.91864357313406</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M11" t="n">
-        <v>87.81219696979595</v>
+        <v>87.81219696979596</v>
       </c>
       <c r="N11" t="n">
         <v>89.23309012159272</v>
       </c>
       <c r="O11" t="n">
-        <v>84.26027664929038</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P11" t="n">
-        <v>71.91419668977167</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q11" t="n">
         <v>54.00456677381164</v>
@@ -31832,13 +31832,13 @@
         <v>0.2675740816447492</v>
       </c>
       <c r="H12" t="n">
-        <v>2.584202314832183</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I12" t="n">
         <v>9.212528688207374</v>
       </c>
       <c r="J12" t="n">
-        <v>25.27988286276115</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K12" t="n">
         <v>43.20734633295935</v>
@@ -31853,10 +31853,10 @@
         <v>69.59155906777185</v>
       </c>
       <c r="O12" t="n">
-        <v>63.6626807323803</v>
+        <v>63.66268073238031</v>
       </c>
       <c r="P12" t="n">
-        <v>51.0949138888118</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q12" t="n">
         <v>34.15559680784553</v>
@@ -31871,7 +31871,7 @@
         <v>1.078511320313704</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01760355800294403</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>1.994454263441751</v>
       </c>
       <c r="I13" t="n">
-        <v>6.74606820395226</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J13" t="n">
         <v>15.85978610100868</v>
@@ -31926,7 +31926,7 @@
         <v>33.35102763223556</v>
       </c>
       <c r="M13" t="n">
-        <v>35.16398247906552</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N13" t="n">
         <v>34.32786157107873</v>
@@ -31938,7 +31938,7 @@
         <v>27.13110380452866</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.7841699596748</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R13" t="n">
         <v>10.08647319732402</v>
@@ -31947,10 +31947,10 @@
         <v>3.909375074660361</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9584800652531923</v>
+        <v>0.9584800652531924</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5000943781070861</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H14" t="n">
-        <v>5.121591549789197</v>
+        <v>5.121591549789198</v>
       </c>
       <c r="I14" t="n">
         <v>19.27988851197346</v>
@@ -31999,22 +31999,22 @@
         <v>42.44488522386634</v>
       </c>
       <c r="K14" t="n">
-        <v>63.61388024913931</v>
+        <v>63.61388024913932</v>
       </c>
       <c r="L14" t="n">
-        <v>78.91864357313406</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M14" t="n">
-        <v>87.81219696979595</v>
+        <v>87.81219696979596</v>
       </c>
       <c r="N14" t="n">
         <v>89.23309012159272</v>
       </c>
       <c r="O14" t="n">
-        <v>84.26027664929038</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P14" t="n">
-        <v>71.91419668977167</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q14" t="n">
         <v>54.00456677381164</v>
@@ -32069,13 +32069,13 @@
         <v>0.2675740816447492</v>
       </c>
       <c r="H15" t="n">
-        <v>2.584202314832183</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I15" t="n">
         <v>9.212528688207374</v>
       </c>
       <c r="J15" t="n">
-        <v>25.27988286276115</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K15" t="n">
         <v>43.20734633295935</v>
@@ -32090,10 +32090,10 @@
         <v>69.59155906777185</v>
       </c>
       <c r="O15" t="n">
-        <v>63.6626807323803</v>
+        <v>63.66268073238031</v>
       </c>
       <c r="P15" t="n">
-        <v>51.0949138888118</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q15" t="n">
         <v>34.15559680784553</v>
@@ -32108,7 +32108,7 @@
         <v>1.078511320313704</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01760355800294403</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>1.994454263441751</v>
       </c>
       <c r="I16" t="n">
-        <v>6.74606820395226</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J16" t="n">
         <v>15.85978610100868</v>
@@ -32163,7 +32163,7 @@
         <v>33.35102763223556</v>
       </c>
       <c r="M16" t="n">
-        <v>35.16398247906552</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N16" t="n">
         <v>34.32786157107873</v>
@@ -32175,7 +32175,7 @@
         <v>27.13110380452866</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.7841699596748</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R16" t="n">
         <v>10.08647319732402</v>
@@ -32184,10 +32184,10 @@
         <v>3.909375074660361</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9584800652531923</v>
+        <v>0.9584800652531924</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5000943781070861</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H17" t="n">
-        <v>5.121591549789197</v>
+        <v>5.121591549789198</v>
       </c>
       <c r="I17" t="n">
         <v>19.27988851197346</v>
@@ -32236,22 +32236,22 @@
         <v>42.44488522386634</v>
       </c>
       <c r="K17" t="n">
-        <v>63.61388024913931</v>
+        <v>63.61388024913932</v>
       </c>
       <c r="L17" t="n">
-        <v>78.91864357313406</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M17" t="n">
-        <v>87.81219696979595</v>
+        <v>87.81219696979596</v>
       </c>
       <c r="N17" t="n">
         <v>89.23309012159272</v>
       </c>
       <c r="O17" t="n">
-        <v>84.26027664929038</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P17" t="n">
-        <v>71.91419668977167</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q17" t="n">
         <v>54.00456677381164</v>
@@ -32306,13 +32306,13 @@
         <v>0.2675740816447492</v>
       </c>
       <c r="H18" t="n">
-        <v>2.584202314832183</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I18" t="n">
         <v>9.212528688207374</v>
       </c>
       <c r="J18" t="n">
-        <v>25.27988286276115</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K18" t="n">
         <v>43.20734633295935</v>
@@ -32327,10 +32327,10 @@
         <v>69.59155906777185</v>
       </c>
       <c r="O18" t="n">
-        <v>63.6626807323803</v>
+        <v>63.66268073238031</v>
       </c>
       <c r="P18" t="n">
-        <v>51.0949138888118</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q18" t="n">
         <v>34.15559680784553</v>
@@ -32345,7 +32345,7 @@
         <v>1.078511320313704</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01760355800294403</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>1.994454263441751</v>
       </c>
       <c r="I19" t="n">
-        <v>6.74606820395226</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J19" t="n">
         <v>15.85978610100868</v>
@@ -32400,7 +32400,7 @@
         <v>33.35102763223556</v>
       </c>
       <c r="M19" t="n">
-        <v>35.16398247906552</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N19" t="n">
         <v>34.32786157107873</v>
@@ -32412,7 +32412,7 @@
         <v>27.13110380452866</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.7841699596748</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R19" t="n">
         <v>10.08647319732402</v>
@@ -32421,10 +32421,10 @@
         <v>3.909375074660361</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9584800652531923</v>
+        <v>0.9584800652531924</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5000943781070861</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H20" t="n">
-        <v>5.121591549789197</v>
+        <v>5.121591549789198</v>
       </c>
       <c r="I20" t="n">
         <v>19.27988851197346</v>
@@ -32473,22 +32473,22 @@
         <v>42.44488522386634</v>
       </c>
       <c r="K20" t="n">
-        <v>63.61388024913931</v>
+        <v>63.61388024913932</v>
       </c>
       <c r="L20" t="n">
-        <v>78.91864357313406</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M20" t="n">
-        <v>87.81219696979595</v>
+        <v>87.81219696979596</v>
       </c>
       <c r="N20" t="n">
         <v>89.23309012159272</v>
       </c>
       <c r="O20" t="n">
-        <v>84.26027664929038</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P20" t="n">
-        <v>71.91419668977167</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q20" t="n">
         <v>54.00456677381164</v>
@@ -32543,13 +32543,13 @@
         <v>0.2675740816447492</v>
       </c>
       <c r="H21" t="n">
-        <v>2.584202314832183</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I21" t="n">
         <v>9.212528688207374</v>
       </c>
       <c r="J21" t="n">
-        <v>25.27988286276115</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K21" t="n">
         <v>43.20734633295935</v>
@@ -32564,10 +32564,10 @@
         <v>69.59155906777185</v>
       </c>
       <c r="O21" t="n">
-        <v>63.6626807323803</v>
+        <v>63.66268073238031</v>
       </c>
       <c r="P21" t="n">
-        <v>51.0949138888118</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q21" t="n">
         <v>34.15559680784553</v>
@@ -32582,7 +32582,7 @@
         <v>1.078511320313704</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01760355800294403</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>1.994454263441751</v>
       </c>
       <c r="I22" t="n">
-        <v>6.74606820395226</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J22" t="n">
         <v>15.85978610100868</v>
@@ -32637,7 +32637,7 @@
         <v>33.35102763223556</v>
       </c>
       <c r="M22" t="n">
-        <v>35.16398247906552</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N22" t="n">
         <v>34.32786157107873</v>
@@ -32649,7 +32649,7 @@
         <v>27.13110380452866</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.7841699596748</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R22" t="n">
         <v>10.08647319732402</v>
@@ -32658,10 +32658,10 @@
         <v>3.909375074660361</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9584800652531923</v>
+        <v>0.9584800652531924</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5000943781070861</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H23" t="n">
-        <v>5.121591549789197</v>
+        <v>5.121591549789198</v>
       </c>
       <c r="I23" t="n">
         <v>19.27988851197346</v>
@@ -32710,22 +32710,22 @@
         <v>42.44488522386634</v>
       </c>
       <c r="K23" t="n">
-        <v>63.61388024913931</v>
+        <v>63.61388024913932</v>
       </c>
       <c r="L23" t="n">
-        <v>78.91864357313406</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M23" t="n">
-        <v>87.81219696979595</v>
+        <v>87.81219696979596</v>
       </c>
       <c r="N23" t="n">
         <v>89.23309012159272</v>
       </c>
       <c r="O23" t="n">
-        <v>84.26027664929038</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P23" t="n">
-        <v>71.91419668977167</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q23" t="n">
         <v>54.00456677381164</v>
@@ -32780,13 +32780,13 @@
         <v>0.2675740816447492</v>
       </c>
       <c r="H24" t="n">
-        <v>2.584202314832183</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I24" t="n">
         <v>9.212528688207374</v>
       </c>
       <c r="J24" t="n">
-        <v>25.27988286276115</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K24" t="n">
         <v>43.20734633295935</v>
@@ -32801,10 +32801,10 @@
         <v>69.59155906777185</v>
       </c>
       <c r="O24" t="n">
-        <v>63.6626807323803</v>
+        <v>63.66268073238031</v>
       </c>
       <c r="P24" t="n">
-        <v>51.0949138888118</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q24" t="n">
         <v>34.15559680784553</v>
@@ -32819,7 +32819,7 @@
         <v>1.078511320313704</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01760355800294403</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,7 +32862,7 @@
         <v>1.994454263441751</v>
       </c>
       <c r="I25" t="n">
-        <v>6.74606820395226</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J25" t="n">
         <v>15.85978610100868</v>
@@ -32874,7 +32874,7 @@
         <v>33.35102763223556</v>
       </c>
       <c r="M25" t="n">
-        <v>35.16398247906552</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N25" t="n">
         <v>34.32786157107873</v>
@@ -32886,7 +32886,7 @@
         <v>27.13110380452866</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.7841699596748</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R25" t="n">
         <v>10.08647319732402</v>
@@ -32895,10 +32895,10 @@
         <v>3.909375074660361</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9584800652531923</v>
+        <v>0.9584800652531924</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5000943781070861</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H26" t="n">
-        <v>5.121591549789197</v>
+        <v>5.121591549789198</v>
       </c>
       <c r="I26" t="n">
         <v>19.27988851197346</v>
@@ -32947,22 +32947,22 @@
         <v>42.44488522386634</v>
       </c>
       <c r="K26" t="n">
-        <v>63.61388024913931</v>
+        <v>63.61388024913932</v>
       </c>
       <c r="L26" t="n">
-        <v>78.91864357313406</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M26" t="n">
-        <v>87.81219696979595</v>
+        <v>87.81219696979596</v>
       </c>
       <c r="N26" t="n">
         <v>89.23309012159272</v>
       </c>
       <c r="O26" t="n">
-        <v>84.26027664929038</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P26" t="n">
-        <v>71.91419668977167</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q26" t="n">
         <v>54.00456677381164</v>
@@ -33017,13 +33017,13 @@
         <v>0.2675740816447492</v>
       </c>
       <c r="H27" t="n">
-        <v>2.584202314832183</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I27" t="n">
         <v>9.212528688207374</v>
       </c>
       <c r="J27" t="n">
-        <v>25.27988286276115</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K27" t="n">
         <v>43.20734633295935</v>
@@ -33038,10 +33038,10 @@
         <v>69.59155906777185</v>
       </c>
       <c r="O27" t="n">
-        <v>63.6626807323803</v>
+        <v>63.66268073238031</v>
       </c>
       <c r="P27" t="n">
-        <v>51.0949138888118</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q27" t="n">
         <v>34.15559680784553</v>
@@ -33056,7 +33056,7 @@
         <v>1.078511320313704</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01760355800294403</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,7 +33099,7 @@
         <v>1.994454263441751</v>
       </c>
       <c r="I28" t="n">
-        <v>6.74606820395226</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J28" t="n">
         <v>15.85978610100868</v>
@@ -33111,7 +33111,7 @@
         <v>33.35102763223556</v>
       </c>
       <c r="M28" t="n">
-        <v>35.16398247906552</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N28" t="n">
         <v>34.32786157107873</v>
@@ -33123,7 +33123,7 @@
         <v>27.13110380452866</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.7841699596748</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R28" t="n">
         <v>10.08647319732402</v>
@@ -33132,10 +33132,10 @@
         <v>3.909375074660361</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9584800652531923</v>
+        <v>0.9584800652531924</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5000943781070861</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H29" t="n">
-        <v>5.121591549789197</v>
+        <v>5.121591549789198</v>
       </c>
       <c r="I29" t="n">
         <v>19.27988851197346</v>
@@ -33184,22 +33184,22 @@
         <v>42.44488522386634</v>
       </c>
       <c r="K29" t="n">
-        <v>63.61388024913931</v>
+        <v>63.61388024913932</v>
       </c>
       <c r="L29" t="n">
-        <v>78.91864357313406</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M29" t="n">
-        <v>87.81219696979595</v>
+        <v>87.81219696979596</v>
       </c>
       <c r="N29" t="n">
         <v>89.23309012159272</v>
       </c>
       <c r="O29" t="n">
-        <v>84.26027664929038</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P29" t="n">
-        <v>71.91419668977167</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q29" t="n">
         <v>54.00456677381164</v>
@@ -33254,13 +33254,13 @@
         <v>0.2675740816447492</v>
       </c>
       <c r="H30" t="n">
-        <v>2.584202314832183</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I30" t="n">
         <v>9.212528688207374</v>
       </c>
       <c r="J30" t="n">
-        <v>25.27988286276115</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K30" t="n">
         <v>43.20734633295935</v>
@@ -33275,10 +33275,10 @@
         <v>69.59155906777185</v>
       </c>
       <c r="O30" t="n">
-        <v>63.6626807323803</v>
+        <v>63.66268073238031</v>
       </c>
       <c r="P30" t="n">
-        <v>51.0949138888118</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q30" t="n">
         <v>34.15559680784553</v>
@@ -33293,7 +33293,7 @@
         <v>1.078511320313704</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01760355800294403</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,7 +33336,7 @@
         <v>1.994454263441751</v>
       </c>
       <c r="I31" t="n">
-        <v>6.74606820395226</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J31" t="n">
         <v>15.85978610100868</v>
@@ -33348,7 +33348,7 @@
         <v>33.35102763223556</v>
       </c>
       <c r="M31" t="n">
-        <v>35.16398247906552</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N31" t="n">
         <v>34.32786157107873</v>
@@ -33360,7 +33360,7 @@
         <v>27.13110380452866</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.7841699596748</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R31" t="n">
         <v>10.08647319732402</v>
@@ -33369,10 +33369,10 @@
         <v>3.909375074660361</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9584800652531923</v>
+        <v>0.9584800652531924</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5000943781070861</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H32" t="n">
-        <v>5.121591549789197</v>
+        <v>5.121591549789198</v>
       </c>
       <c r="I32" t="n">
         <v>19.27988851197346</v>
@@ -33421,22 +33421,22 @@
         <v>42.44488522386634</v>
       </c>
       <c r="K32" t="n">
-        <v>63.61388024913931</v>
+        <v>63.61388024913932</v>
       </c>
       <c r="L32" t="n">
-        <v>78.91864357313406</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M32" t="n">
-        <v>87.81219696979595</v>
+        <v>87.81219696979596</v>
       </c>
       <c r="N32" t="n">
         <v>89.23309012159272</v>
       </c>
       <c r="O32" t="n">
-        <v>84.26027664929038</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P32" t="n">
-        <v>71.91419668977167</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q32" t="n">
         <v>54.00456677381164</v>
@@ -33491,13 +33491,13 @@
         <v>0.2675740816447492</v>
       </c>
       <c r="H33" t="n">
-        <v>2.584202314832183</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I33" t="n">
         <v>9.212528688207374</v>
       </c>
       <c r="J33" t="n">
-        <v>25.27988286276115</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K33" t="n">
         <v>43.20734633295935</v>
@@ -33512,10 +33512,10 @@
         <v>69.59155906777185</v>
       </c>
       <c r="O33" t="n">
-        <v>63.6626807323803</v>
+        <v>63.66268073238031</v>
       </c>
       <c r="P33" t="n">
-        <v>51.0949138888118</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q33" t="n">
         <v>34.15559680784553</v>
@@ -33530,7 +33530,7 @@
         <v>1.078511320313704</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01760355800294403</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,7 +33573,7 @@
         <v>1.994454263441751</v>
       </c>
       <c r="I34" t="n">
-        <v>6.74606820395226</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J34" t="n">
         <v>15.85978610100868</v>
@@ -33585,7 +33585,7 @@
         <v>33.35102763223556</v>
       </c>
       <c r="M34" t="n">
-        <v>35.16398247906552</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N34" t="n">
         <v>34.32786157107873</v>
@@ -33597,7 +33597,7 @@
         <v>27.13110380452866</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.7841699596748</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R34" t="n">
         <v>10.08647319732402</v>
@@ -33606,10 +33606,10 @@
         <v>3.909375074660361</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9584800652531923</v>
+        <v>0.9584800652531924</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5000943781070861</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H35" t="n">
-        <v>5.121591549789197</v>
+        <v>5.121591549789198</v>
       </c>
       <c r="I35" t="n">
         <v>19.27988851197346</v>
@@ -33658,22 +33658,22 @@
         <v>42.44488522386634</v>
       </c>
       <c r="K35" t="n">
-        <v>63.61388024913931</v>
+        <v>63.61388024913932</v>
       </c>
       <c r="L35" t="n">
-        <v>78.91864357313406</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M35" t="n">
-        <v>87.81219696979595</v>
+        <v>87.81219696979596</v>
       </c>
       <c r="N35" t="n">
         <v>89.23309012159272</v>
       </c>
       <c r="O35" t="n">
-        <v>84.26027664929038</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P35" t="n">
-        <v>71.91419668977167</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q35" t="n">
         <v>54.00456677381164</v>
@@ -33728,13 +33728,13 @@
         <v>0.2675740816447492</v>
       </c>
       <c r="H36" t="n">
-        <v>2.584202314832183</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I36" t="n">
         <v>9.212528688207374</v>
       </c>
       <c r="J36" t="n">
-        <v>25.27988286276115</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K36" t="n">
         <v>43.20734633295935</v>
@@ -33749,10 +33749,10 @@
         <v>69.59155906777185</v>
       </c>
       <c r="O36" t="n">
-        <v>63.6626807323803</v>
+        <v>63.66268073238031</v>
       </c>
       <c r="P36" t="n">
-        <v>51.0949138888118</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q36" t="n">
         <v>34.15559680784553</v>
@@ -33767,7 +33767,7 @@
         <v>1.078511320313704</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01760355800294403</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,7 +33810,7 @@
         <v>1.994454263441751</v>
       </c>
       <c r="I37" t="n">
-        <v>6.74606820395226</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J37" t="n">
         <v>15.85978610100868</v>
@@ -33822,7 +33822,7 @@
         <v>33.35102763223556</v>
       </c>
       <c r="M37" t="n">
-        <v>35.16398247906552</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N37" t="n">
         <v>34.32786157107873</v>
@@ -33834,7 +33834,7 @@
         <v>27.13110380452866</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.7841699596748</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R37" t="n">
         <v>10.08647319732402</v>
@@ -33843,10 +33843,10 @@
         <v>3.909375074660361</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9584800652531923</v>
+        <v>0.9584800652531924</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5000943781070861</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H38" t="n">
-        <v>5.121591549789197</v>
+        <v>5.121591549789198</v>
       </c>
       <c r="I38" t="n">
         <v>19.27988851197346</v>
@@ -33895,22 +33895,22 @@
         <v>42.44488522386634</v>
       </c>
       <c r="K38" t="n">
-        <v>63.61388024913931</v>
+        <v>63.61388024913932</v>
       </c>
       <c r="L38" t="n">
-        <v>78.91864357313406</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M38" t="n">
-        <v>87.81219696979595</v>
+        <v>87.81219696979596</v>
       </c>
       <c r="N38" t="n">
         <v>89.23309012159272</v>
       </c>
       <c r="O38" t="n">
-        <v>84.26027664929038</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P38" t="n">
-        <v>71.91419668977167</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q38" t="n">
         <v>54.00456677381164</v>
@@ -33965,13 +33965,13 @@
         <v>0.2675740816447492</v>
       </c>
       <c r="H39" t="n">
-        <v>2.584202314832183</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I39" t="n">
         <v>9.212528688207374</v>
       </c>
       <c r="J39" t="n">
-        <v>25.27988286276115</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K39" t="n">
         <v>43.20734633295935</v>
@@ -33986,10 +33986,10 @@
         <v>69.59155906777185</v>
       </c>
       <c r="O39" t="n">
-        <v>63.6626807323803</v>
+        <v>63.66268073238031</v>
       </c>
       <c r="P39" t="n">
-        <v>51.0949138888118</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q39" t="n">
         <v>34.15559680784553</v>
@@ -34004,7 +34004,7 @@
         <v>1.078511320313704</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01760355800294403</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,7 +34047,7 @@
         <v>1.994454263441751</v>
       </c>
       <c r="I40" t="n">
-        <v>6.74606820395226</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J40" t="n">
         <v>15.85978610100868</v>
@@ -34059,7 +34059,7 @@
         <v>33.35102763223556</v>
       </c>
       <c r="M40" t="n">
-        <v>35.16398247906552</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N40" t="n">
         <v>34.32786157107873</v>
@@ -34071,7 +34071,7 @@
         <v>27.13110380452866</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.7841699596748</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R40" t="n">
         <v>10.08647319732402</v>
@@ -34080,10 +34080,10 @@
         <v>3.909375074660361</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9584800652531923</v>
+        <v>0.9584800652531924</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5000943781070861</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H41" t="n">
-        <v>5.121591549789197</v>
+        <v>5.121591549789198</v>
       </c>
       <c r="I41" t="n">
         <v>19.27988851197346</v>
@@ -34132,22 +34132,22 @@
         <v>42.44488522386634</v>
       </c>
       <c r="K41" t="n">
-        <v>63.61388024913931</v>
+        <v>63.61388024913932</v>
       </c>
       <c r="L41" t="n">
-        <v>78.91864357313406</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M41" t="n">
-        <v>87.81219696979595</v>
+        <v>87.81219696979596</v>
       </c>
       <c r="N41" t="n">
         <v>89.23309012159272</v>
       </c>
       <c r="O41" t="n">
-        <v>84.26027664929038</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P41" t="n">
-        <v>71.91419668977167</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q41" t="n">
         <v>54.00456677381164</v>
@@ -34202,13 +34202,13 @@
         <v>0.2675740816447492</v>
       </c>
       <c r="H42" t="n">
-        <v>2.584202314832183</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I42" t="n">
         <v>9.212528688207374</v>
       </c>
       <c r="J42" t="n">
-        <v>25.27988286276115</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K42" t="n">
         <v>43.20734633295935</v>
@@ -34223,10 +34223,10 @@
         <v>69.59155906777185</v>
       </c>
       <c r="O42" t="n">
-        <v>63.6626807323803</v>
+        <v>63.66268073238031</v>
       </c>
       <c r="P42" t="n">
-        <v>51.0949138888118</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q42" t="n">
         <v>34.15559680784553</v>
@@ -34241,7 +34241,7 @@
         <v>1.078511320313704</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01760355800294403</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>1.994454263441751</v>
       </c>
       <c r="I43" t="n">
-        <v>6.74606820395226</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J43" t="n">
         <v>15.85978610100868</v>
@@ -34296,7 +34296,7 @@
         <v>33.35102763223556</v>
       </c>
       <c r="M43" t="n">
-        <v>35.16398247906552</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N43" t="n">
         <v>34.32786157107873</v>
@@ -34308,7 +34308,7 @@
         <v>27.13110380452866</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.7841699596748</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R43" t="n">
         <v>10.08647319732402</v>
@@ -34317,10 +34317,10 @@
         <v>3.909375074660361</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9584800652531923</v>
+        <v>0.9584800652531924</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5000943781070861</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H44" t="n">
-        <v>5.121591549789197</v>
+        <v>5.121591549789198</v>
       </c>
       <c r="I44" t="n">
         <v>19.27988851197346</v>
@@ -34369,22 +34369,22 @@
         <v>42.44488522386634</v>
       </c>
       <c r="K44" t="n">
-        <v>63.61388024913931</v>
+        <v>63.61388024913932</v>
       </c>
       <c r="L44" t="n">
-        <v>78.91864357313406</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M44" t="n">
-        <v>87.81219696979595</v>
+        <v>87.81219696979596</v>
       </c>
       <c r="N44" t="n">
         <v>89.23309012159272</v>
       </c>
       <c r="O44" t="n">
-        <v>84.26027664929038</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P44" t="n">
-        <v>71.91419668977167</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q44" t="n">
         <v>54.00456677381164</v>
@@ -34439,13 +34439,13 @@
         <v>0.2675740816447492</v>
       </c>
       <c r="H45" t="n">
-        <v>2.584202314832183</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I45" t="n">
         <v>9.212528688207374</v>
       </c>
       <c r="J45" t="n">
-        <v>25.27988286276115</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K45" t="n">
         <v>43.20734633295935</v>
@@ -34460,10 +34460,10 @@
         <v>69.59155906777185</v>
       </c>
       <c r="O45" t="n">
-        <v>63.6626807323803</v>
+        <v>63.66268073238031</v>
       </c>
       <c r="P45" t="n">
-        <v>51.0949138888118</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q45" t="n">
         <v>34.15559680784553</v>
@@ -34478,7 +34478,7 @@
         <v>1.078511320313704</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01760355800294403</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,7 +34521,7 @@
         <v>1.994454263441751</v>
       </c>
       <c r="I46" t="n">
-        <v>6.74606820395226</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J46" t="n">
         <v>15.85978610100868</v>
@@ -34533,7 +34533,7 @@
         <v>33.35102763223556</v>
       </c>
       <c r="M46" t="n">
-        <v>35.16398247906552</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N46" t="n">
         <v>34.32786157107873</v>
@@ -34545,7 +34545,7 @@
         <v>27.13110380452866</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.7841699596748</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R46" t="n">
         <v>10.08647319732402</v>
@@ -34554,10 +34554,10 @@
         <v>3.909375074660361</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9584800652531923</v>
+        <v>0.9584800652531924</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01223591572663651</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P8" t="n">
         <v>6.876045741711437</v>
@@ -35258,13 +35258,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
         <v>6.876045741711437</v>
@@ -35343,7 +35343,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>30.49559586925383</v>
       </c>
       <c r="K11" t="n">
-        <v>167.6694417753235</v>
+        <v>167.6694417753233</v>
       </c>
       <c r="L11" t="n">
         <v>260.8134431535973</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.5332915365033</v>
       </c>
       <c r="K12" t="n">
-        <v>169.8311443711789</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L12" t="n">
         <v>290.3835747859679</v>
@@ -35498,7 +35498,7 @@
         <v>379.9834547461367</v>
       </c>
       <c r="N12" t="n">
-        <v>9.619637086076077</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>314.9287555646654</v>
@@ -35507,7 +35507,7 @@
         <v>235.5832751144187</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.2511104576731</v>
+        <v>89.33745600724586</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.4233940018584</v>
+        <v>53.88056716835676</v>
       </c>
       <c r="K13" t="n">
-        <v>3.793008671852888</v>
+        <v>135.1729698558738</v>
       </c>
       <c r="L13" t="n">
-        <v>192.3210140765726</v>
+        <v>60.9410528925517</v>
       </c>
       <c r="M13" t="n">
         <v>206.127820624927</v>
@@ -35586,7 +35586,7 @@
         <v>155.789624253443</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0020878920013</v>
+        <v>57.54491472550371</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.5332915365033</v>
       </c>
       <c r="K15" t="n">
-        <v>169.8311443711789</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L15" t="n">
         <v>290.3835747859679</v>
       </c>
       <c r="M15" t="n">
-        <v>379.9834547461367</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>324.5483926507414</v>
+        <v>365.0698002957094</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>314.9287555646654</v>
       </c>
       <c r="P15" t="n">
         <v>235.5832751144187</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.4233940018584</v>
+        <v>53.88056716835676</v>
       </c>
       <c r="K16" t="n">
         <v>135.1729698558738</v>
       </c>
       <c r="L16" t="n">
-        <v>60.9410528925517</v>
+        <v>192.3210140765726</v>
       </c>
       <c r="M16" t="n">
-        <v>206.127820624927</v>
+        <v>132.2927741664099</v>
       </c>
       <c r="N16" t="n">
         <v>209.8399951343282</v>
@@ -35823,7 +35823,7 @@
         <v>155.789624253443</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0020878920013</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>162.4799091059848</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.01386755926683</v>
+        <v>44.01386755926666</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>24.5332915365033</v>
       </c>
       <c r="K18" t="n">
-        <v>169.8311443711789</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>290.3835747859679</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="N18" t="n">
-        <v>365.0698002957092</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="O18" t="n">
         <v>314.9287555646654</v>
       </c>
       <c r="P18" t="n">
-        <v>235.5832751144187</v>
+        <v>10.51731028903392</v>
       </c>
       <c r="Q18" t="n">
         <v>104.2511104576731</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.793008671852888</v>
+        <v>3.793008671852892</v>
       </c>
       <c r="L19" t="n">
         <v>60.9410528925517</v>
       </c>
       <c r="M19" t="n">
-        <v>74.74785944090611</v>
+        <v>74.74785944090613</v>
       </c>
       <c r="N19" t="n">
         <v>78.46003395030732</v>
       </c>
       <c r="O19" t="n">
-        <v>56.2924642003304</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P19" t="n">
-        <v>24.40966306942214</v>
+        <v>24.40966306942215</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>162.4799091059848</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.01386755926666</v>
+        <v>44.01386755926683</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>24.5332915365033</v>
       </c>
       <c r="K21" t="n">
-        <v>169.8311443711789</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L21" t="n">
-        <v>290.3835747859679</v>
+        <v>275.4699203355407</v>
       </c>
       <c r="M21" t="n">
-        <v>379.9834547461367</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>379.9834547461367</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>314.9287555646654</v>
       </c>
       <c r="P21" t="n">
-        <v>155.6149214825203</v>
+        <v>235.5832751144187</v>
       </c>
       <c r="Q21" t="n">
         <v>104.2511104576731</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.793008671852888</v>
+        <v>3.793008671852892</v>
       </c>
       <c r="L22" t="n">
         <v>60.9410528925517</v>
       </c>
       <c r="M22" t="n">
-        <v>74.74785944090611</v>
+        <v>74.74785944090613</v>
       </c>
       <c r="N22" t="n">
         <v>78.46003395030732</v>
       </c>
       <c r="O22" t="n">
-        <v>56.2924642003304</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P22" t="n">
-        <v>24.40966306942214</v>
+        <v>24.40966306942215</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>24.5332915365033</v>
       </c>
       <c r="K24" t="n">
-        <v>169.8311443711789</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>290.3835747859679</v>
       </c>
       <c r="M24" t="n">
+        <v>154.9174899207517</v>
+      </c>
+      <c r="N24" t="n">
         <v>379.9834547461367</v>
       </c>
-      <c r="N24" t="n">
-        <v>300.0151011142382</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>314.9287555646654</v>
       </c>
       <c r="P24" t="n">
         <v>235.5832751144187</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.793008671852888</v>
+        <v>3.793008671852892</v>
       </c>
       <c r="L25" t="n">
         <v>60.9410528925517</v>
       </c>
       <c r="M25" t="n">
-        <v>74.74785944090611</v>
+        <v>74.74785944090613</v>
       </c>
       <c r="N25" t="n">
         <v>78.46003395030732</v>
       </c>
       <c r="O25" t="n">
-        <v>56.2924642003304</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P25" t="n">
-        <v>24.40966306942214</v>
+        <v>24.40966306942215</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.6202691763123</v>
+        <v>180.6202691763124</v>
       </c>
       <c r="K26" t="n">
-        <v>317.794115082382</v>
+        <v>317.7941150823821</v>
       </c>
       <c r="L26" t="n">
         <v>410.9381164606558</v>
       </c>
       <c r="M26" t="n">
-        <v>457.1041705424142</v>
+        <v>457.1041705424143</v>
       </c>
       <c r="N26" t="n">
-        <v>447.2916242440445</v>
+        <v>447.2916242440446</v>
       </c>
       <c r="O26" t="n">
         <v>385.0869197974075</v>
@@ -36613,10 +36613,10 @@
         <v>312.6045824130433</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.1385408663253</v>
+        <v>194.1385408663254</v>
       </c>
       <c r="R26" t="n">
-        <v>31.66960884467811</v>
+        <v>31.66960884467815</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>24.5332915365033</v>
       </c>
       <c r="K27" t="n">
-        <v>169.8311443711789</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L27" t="n">
         <v>290.3835747859679</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.509200288846159</v>
+        <v>1.509200288846188</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.703625284127298</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.42026658375252</v>
       </c>
       <c r="J28" t="n">
-        <v>72.62527929139442</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>103.2833008685571</v>
+        <v>3.793008671852892</v>
       </c>
       <c r="L28" t="n">
-        <v>211.0657261996102</v>
+        <v>60.9410528925517</v>
       </c>
       <c r="M28" t="n">
-        <v>74.74785944090611</v>
+        <v>157.9927390460856</v>
       </c>
       <c r="N28" t="n">
-        <v>228.5847072573658</v>
+        <v>228.5847072573659</v>
       </c>
       <c r="O28" t="n">
-        <v>56.2924642003304</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P28" t="n">
-        <v>24.40966306942214</v>
+        <v>174.5343363764807</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.74680001503896</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>410.9381164606558</v>
       </c>
       <c r="M29" t="n">
-        <v>457.1041705424142</v>
+        <v>457.1041705424143</v>
       </c>
       <c r="N29" t="n">
         <v>447.2916242440446</v>
       </c>
       <c r="O29" t="n">
-        <v>385.0869197974075</v>
+        <v>385.0869197974076</v>
       </c>
       <c r="P29" t="n">
         <v>312.6045824130433</v>
@@ -36853,7 +36853,7 @@
         <v>194.1385408663254</v>
       </c>
       <c r="R29" t="n">
-        <v>31.66960884467814</v>
+        <v>31.66960884467815</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>24.5332915365033</v>
       </c>
       <c r="K30" t="n">
-        <v>169.8311443711789</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L30" t="n">
         <v>290.3835747859679</v>
@@ -36972,10 +36972,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.690710660489373</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.703625284127298</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,28 +36984,28 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.420266583752519</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>72.62527929139445</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9176819789114</v>
+        <v>3.793008671852892</v>
       </c>
       <c r="L31" t="n">
         <v>211.0657261996103</v>
       </c>
       <c r="M31" t="n">
-        <v>174.3270853427036</v>
+        <v>74.74785944090613</v>
       </c>
       <c r="N31" t="n">
-        <v>78.46003395030732</v>
+        <v>228.5847072573659</v>
       </c>
       <c r="O31" t="n">
-        <v>56.2924642003304</v>
+        <v>148.8976207412636</v>
       </c>
       <c r="P31" t="n">
-        <v>24.40966306942214</v>
+        <v>24.40966306942215</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.3992397306079</v>
+        <v>182.399239730608</v>
       </c>
       <c r="K32" t="n">
-        <v>319.5730856366776</v>
+        <v>319.5730856366777</v>
       </c>
       <c r="L32" t="n">
         <v>412.7170870149514</v>
       </c>
       <c r="M32" t="n">
-        <v>415.6460431711722</v>
+        <v>458.8831410967099</v>
       </c>
       <c r="N32" t="n">
-        <v>449.0705947983401</v>
+        <v>405.8334968728017</v>
       </c>
       <c r="O32" t="n">
-        <v>386.8658903517031</v>
+        <v>386.8658903517032</v>
       </c>
       <c r="P32" t="n">
         <v>314.3835529673389</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.9175114206209</v>
+        <v>195.917511420621</v>
       </c>
       <c r="R32" t="n">
-        <v>33.44857939897371</v>
+        <v>33.44857939897374</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>24.5332915365033</v>
       </c>
       <c r="K33" t="n">
-        <v>169.8311443711789</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L33" t="n">
         <v>290.3835747859679</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6.482595838422895</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,28 +37221,28 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.199237138048088</v>
+        <v>3.199237138048117</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>155.696652533207</v>
+        <v>3.793008671852892</v>
       </c>
       <c r="L34" t="n">
-        <v>60.9410528925517</v>
+        <v>212.8446967539059</v>
       </c>
       <c r="M34" t="n">
-        <v>226.6515033022602</v>
+        <v>213.3517667832859</v>
       </c>
       <c r="N34" t="n">
-        <v>78.46003395030732</v>
+        <v>230.3636778116615</v>
       </c>
       <c r="O34" t="n">
-        <v>201.3789673811337</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P34" t="n">
-        <v>24.40966306942214</v>
+        <v>24.40966306942215</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37324,13 +37324,13 @@
         <v>162.4799091059848</v>
       </c>
       <c r="Q35" t="n">
-        <v>92.01759717162173</v>
+        <v>217.7517366120477</v>
       </c>
       <c r="R35" t="n">
-        <v>102.4516219615872</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>23.28251747883748</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>19.67450048696755</v>
+        <v>24.5332915365033</v>
       </c>
       <c r="K36" t="n">
-        <v>169.8311443711789</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L36" t="n">
         <v>290.3835747859679</v>
@@ -37400,10 +37400,10 @@
         <v>314.9287555646654</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>99.39231940813852</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.2511104576731</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.793008671852888</v>
+        <v>3.793008671852892</v>
       </c>
       <c r="L37" t="n">
         <v>60.9410528925517</v>
       </c>
       <c r="M37" t="n">
-        <v>74.74785944090611</v>
+        <v>74.74785944090613</v>
       </c>
       <c r="N37" t="n">
         <v>78.46003395030732</v>
       </c>
       <c r="O37" t="n">
-        <v>56.2924642003304</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P37" t="n">
-        <v>24.40966306942214</v>
+        <v>24.40966306942215</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>29.71068536553513</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.49559586925383</v>
+        <v>210.6616328087323</v>
       </c>
       <c r="K38" t="n">
-        <v>215.6731713876784</v>
+        <v>167.6694417753235</v>
       </c>
       <c r="L38" t="n">
         <v>260.8134431535973</v>
@@ -37564,7 +37564,7 @@
         <v>44.01386755926683</v>
       </c>
       <c r="R38" t="n">
-        <v>102.4516219615872</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>23.28251747883748</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>169.8311443711789</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L39" t="n">
         <v>290.3835747859679</v>
@@ -37637,10 +37637,10 @@
         <v>314.9287555646654</v>
       </c>
       <c r="P39" t="n">
-        <v>123.9256109446406</v>
+        <v>19.67450048696885</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.2511104576731</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.793008671852888</v>
+        <v>3.793008671852892</v>
       </c>
       <c r="L40" t="n">
         <v>60.9410528925517</v>
       </c>
       <c r="M40" t="n">
-        <v>74.74785944090611</v>
+        <v>74.74785944090613</v>
       </c>
       <c r="N40" t="n">
         <v>78.46003395030732</v>
       </c>
       <c r="O40" t="n">
-        <v>56.2924642003304</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P40" t="n">
-        <v>24.40966306942214</v>
+        <v>24.40966306942215</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,16 +37774,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.58320313112809</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.49559586925383</v>
+        <v>233.2748000588144</v>
       </c>
       <c r="K41" t="n">
-        <v>307.7184800652936</v>
+        <v>167.6694417753235</v>
       </c>
       <c r="L41" t="n">
-        <v>260.8134431535973</v>
+        <v>412.4456845746944</v>
       </c>
       <c r="M41" t="n">
         <v>306.9794972353557</v>
@@ -37798,13 +37798,13 @@
         <v>162.4799091059848</v>
       </c>
       <c r="Q41" t="n">
-        <v>246.7930717488274</v>
+        <v>44.01386755926683</v>
       </c>
       <c r="R41" t="n">
-        <v>84.32413972718014</v>
+        <v>84.32413972718015</v>
       </c>
       <c r="S41" t="n">
-        <v>5.15503524443044</v>
+        <v>5.155035244430442</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>24.5332915365033</v>
       </c>
       <c r="K42" t="n">
-        <v>169.8311443711789</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L42" t="n">
         <v>290.3835747859679</v>
@@ -37868,7 +37868,7 @@
         <v>391.3681995499867</v>
       </c>
       <c r="N42" t="n">
-        <v>417.5922213279921</v>
+        <v>417.5922213279915</v>
       </c>
       <c r="O42" t="n">
         <v>314.9287555646654</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>4.285870678141003</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.793008671852888</v>
+        <v>3.793008671852892</v>
       </c>
       <c r="L43" t="n">
         <v>60.9410528925517</v>
       </c>
       <c r="M43" t="n">
-        <v>74.74785944090611</v>
+        <v>74.74785944090613</v>
       </c>
       <c r="N43" t="n">
         <v>78.46003395030732</v>
       </c>
       <c r="O43" t="n">
-        <v>56.2924642003304</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P43" t="n">
-        <v>24.40966306942214</v>
+        <v>28.69553374756308</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>11.58320313112809</v>
       </c>
       <c r="J44" t="n">
-        <v>30.49559586925383</v>
+        <v>233.2748000588144</v>
       </c>
       <c r="K44" t="n">
         <v>370.4486459648841</v>
       </c>
       <c r="L44" t="n">
-        <v>400.8624814435664</v>
+        <v>260.8134431535973</v>
       </c>
       <c r="M44" t="n">
         <v>306.9794972353557</v>
@@ -38038,10 +38038,10 @@
         <v>44.01386755926683</v>
       </c>
       <c r="R44" t="n">
-        <v>84.32413972718014</v>
+        <v>21.59397382758948</v>
       </c>
       <c r="S44" t="n">
-        <v>5.15503524443044</v>
+        <v>5.155035244430442</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>24.5332915365033</v>
       </c>
       <c r="K45" t="n">
-        <v>169.8311443711789</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L45" t="n">
         <v>290.3835747859679</v>
@@ -38114,7 +38114,7 @@
         <v>235.5832751144187</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.2511104576726</v>
+        <v>104.2511104576731</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>4.285870678140967</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.793008671852888</v>
+        <v>3.793008671852892</v>
       </c>
       <c r="L46" t="n">
         <v>60.9410528925517</v>
       </c>
       <c r="M46" t="n">
-        <v>74.74785944090611</v>
+        <v>74.74785944090613</v>
       </c>
       <c r="N46" t="n">
         <v>78.46003395030732</v>
       </c>
       <c r="O46" t="n">
-        <v>56.2924642003304</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P46" t="n">
-        <v>24.40966306942214</v>
+        <v>24.40966306942215</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>4.285870678140989</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
